--- a/what/bencana/df_result_lda_evaluated.xlsx
+++ b/what/bencana/df_result_lda_evaluated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PetaKabar\what\bencana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{714E4917-A3C2-4382-B9E2-6E051603ABC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61A3FCBF-BE5C-4317-8700-FD6C45C4A318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="837">
   <si>
     <t>title_old</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>bencana, wilayah, bali, negara, hujan, rawan, lebat, petir, kencang, meteor, gunung, pegunungan, angin</t>
-  </si>
-  <si>
-    <t>['petir', 'berpotensi', 'kencang', 'hujan', 'angin', 'jawa', 'cuaca', 'semarang', 'lebat', 'hujan_lebat']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -104,9 +101,6 @@
     <t>akibat, hujan, banjir, banjirnya, menggenangi</t>
   </si>
   <si>
-    <t>['hujan', 'ketinggian', 'banjir', 'terdampak', 'surut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kantor Bawaslu Jember di Jalan Dewi Sartika, Kaliwates kebanjiran. Air_x000D_
@@ -152,9 +146,6 @@
   </si>
   <si>
     <t>akibat, curah, masyarakat, bali, jalan, kendaraan, keterangan, hujan, lokasi, genangan, penumpukan</t>
-  </si>
-  <si>
-    <t>['jakarta', 'hujan', 'cuaca_ekstrem', 'upaya', 'penanganan', 'semarang', 'membantu', 'terdampak', 'genangan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -215,9 +206,6 @@
   </si>
   <si>
     <t>korban, akibat, gempa, runtuh, tim, keterangan, warga, susulan, guncangan, bumi, lempeng, subduksi, patahan, hiposentrum</t>
-  </si>
-  <si>
-    <t>['kedalaman', 'jiwa', 'bpbd', 'gempa_bumi', 'jawa', 'gempa', 'gempa_susulan', 'pusat_gempa', 'magnitudo', 'tsunami', 'menyebut', 'kali']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -267,9 +255,6 @@
   </si>
   <si>
     <t>gempa, tanah, runtuh, acara, wilayah, masyarakat, jalan, terletak, mobil, tanahnya, warga, lokasi, waktu, bumi, hutan, angin</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'gempa_bumi', 'jawa', 'lahan', 'bangunan', 'pasar', 'pembangunan', 'dibangun', 'pemerintah', 'lantai', 'gempa', 'pantai', 'sungai', 'tanah', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">Daftar Isi_x000D_
@@ -655,9 +640,6 @@
     <t>korban, peristiwa, wilayah, keterangan, waktu, terbakar, geser, terbakarnya</t>
   </si>
   <si>
-    <t>['terbakar', 'peristiwa', 'kapal', 'kebakaran']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sembilan korban terbakarnya 3 KM Tangkap Ikan di Perairan Selatan PPN_x000D_
@@ -708,9 +690,6 @@
     <t>korban, gempa, kerusakan, mengguncang, getaran, bumi</t>
   </si>
   <si>
-    <t>['jiwa', 'gempa_bumi', 'gempa', 'titik', 'pusat_gempa', 'getaran', 'bmkg']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi berkekuatan magnitudo (M) 3,1 mengguncang Kota Jayapura, Papua._x000D_
@@ -751,9 +730,6 @@
   </si>
   <si>
     <t>bencana, tanah, tim, wilayah, masyarakat, jalan, hujan, longsor, siklon, tropis</t>
-  </si>
-  <si>
-    <t>['longsor', 'kemarin', 'hujan', 'laut', 'cuaca_ekstrem', 'upaya', 'pemerintah', 'alam', 'tanah', 'pohon', 'waspada']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -805,9 +781,6 @@
     <t>akibat, menimbulkan, bali, jalan, hujan, warga, letusan, banjir, meluap, menerjang, menimbun, luap, vulkanik</t>
   </si>
   <si>
-    <t>['kemarin', 'hujan', 'banjir', 'meluap', 'kali', 'sungai']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Akibat hujan intensitas tinggi Gunung Semeru kembali mengeluarkan banjir lahar_x000D_
@@ -858,9 +831,6 @@
   </si>
   <si>
     <t>akibat, peristiwa, tanah, jalan, badan, kendaraan, hujan, warga, pekerjaan, lokasi, ditambah, bumi, geser, pergeseran, pergerakan</t>
-  </si>
-  <si>
-    <t>['hujan', 'pasar', 'pembangunan', 'peristiwa', 'kendaraan', 'tanah']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -908,9 +878,6 @@
   </si>
   <si>
     <t>tim, bali, waktu, hutan</t>
-  </si>
-  <si>
-    <t>['program', 'pemerintah', 'jokowi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1008,9 +975,6 @@
     <t>akibat, kerusakan, tim, kecamatan, bali, jalan, warga, banjir, dihantam, menerjang, terjangan, terbawa, kencang, angin</t>
   </si>
   <si>
-    <t>['kencang', 'bpbd', 'kemarin', 'angin', 'laut', 'cuaca_ekstrem', 'terendam_banjir', 'banjir', 'pemerintah', 'sulsel', 'angin_kencang', 'terdampak', 'terdampak_banjir', 'surut', 'pantai', 'sampah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sebanyak 15 ton sampah yang terbawa banjir besar di Kabupaten Maros, Sulawesi_x000D_
@@ -1087,9 +1051,6 @@
   </si>
   <si>
     <t>bencana, curah, tim, wilayah, masyarakat, keterangan, hujan, banjir, lebat, longsor, kencang, meteor, monsun, bandang, angin</t>
-  </si>
-  <si>
-    <t>['longsor', 'kencang', 'hujan', 'angin', 'cuaca_ekstrem', 'banjir', 'banjir_bandang', 'lebat', 'angin_kencang', 'bmkg', 'hujan_lebat', 'waspada']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1139,9 +1100,6 @@
     <t>bali, pantauan, mobil, warga, lokasi, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['jakarta', 'terbakar', 'api', 'kebakaran']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Asap kebakaran yang melanda permukiman warga di Jalan Bangka Buntu I,_x000D_
 Bangka, Mampang Prapatan, Jakarta Selatan, masih terlihat sampai Selasa_x000D_
 (27/12/2022) pagi sekitar pukul 10.00 WIB._x000D_
@@ -1183,9 +1141,6 @@
   </si>
   <si>
     <t>penanggulangan, wilayah, langi, hujan, warga, lokasi, badai, banjir, meluas, lebat, tanggul, angin, klimatologi</t>
-  </si>
-  <si>
-    <t>['bpbd', 'hujan', 'angin', 'jawa', 'cuaca_ekstrem', 'program', 'pembangunan', 'banjir', 'tumbang', 'lebat', 'hujan_lebat', 'pohon', 'cuaca']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1247,9 +1202,6 @@
   </si>
   <si>
     <t>bencana, gempa, masyarakat, bali, letusan, banjir, berapi, bumi, bahaya, seismik, meteor, astronomis, gunung, tsunami, vulkanologi</t>
-  </si>
-  <si>
-    <t>['gempa_bumi', 'banjir_rob', 'banjir', 'gempa', 'alam', 'tsunami']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1310,9 +1262,6 @@
     <t>korban, peristiwa, hujan, mobil, lokasi, banjir, menerjang, gerimis, lebat</t>
   </si>
   <si>
-    <t>['kemarin', 'hujan', 'banjir', 'lebat', 'unit', 'mobil', 'kali']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Tiga unit jip wisata terjebak aliran banjir di Kali Kuning, Kapanewon Pakem,_x000D_
@@ -1358,9 +1307,6 @@
     <t>korban, bencana, gempa, bantuan, warga</t>
   </si>
   <si>
-    <t>['cianjur', 'pemerintah', 'gempa', 'membantu', 'alam', 'terdampak', 'bantuan', 'pengungsi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Bupati Cianjur Herman Suherman mengungkapkan pihaknya saat ini sudah menerima_x000D_
@@ -1410,9 +1356,6 @@
     <t>gempa, kerusakan, runtuh, masyarakat, keterangan, warga, lokasi, mengguncang, getaran, susulan, bumi, hiposentrum</t>
   </si>
   <si>
-    <t>['kedalaman', 'gempa_bumi', 'jawa', 'gempa', 'getaran', 'terdampak', 'kali']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi dengan kekuatan magnitudo (M) 6,2 mengguncang Jember. Gempa ini_x000D_
@@ -1461,9 +1404,6 @@
   </si>
   <si>
     <t>acara, bali, jalan, keterangan, ucapan, mobil, lokasi, mencegah, waktu, kebakaran</t>
-  </si>
-  <si>
-    <t>['polisi', 'kebakaran', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1546,9 +1486,6 @@
     <t>akibat, gempa, wilayah, menimbulkan, masyarakat, warga, lokasi, rawan, getaran, susulan, bumi, sesar, patahan, tsunami</t>
   </si>
   <si>
-    <t>['kedalaman', 'waspada', 'gempa_bumi', 'bangunan', 'gempa', 'gempa_susulan', 'pusat_gempa', 'getaran', 'tsunami', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi berkekuatan M 6,2 terjadi pukul 13.07 WIB di Jember, Selasa_x000D_
@@ -1605,9 +1542,6 @@
   </si>
   <si>
     <t>curah, tim, wilayah, masyarakat, bali, jalan, kendaraan, keterangan, pelaksanaan, hujan, penghujan, bahaya, kencang, angin, pergerakan</t>
-  </si>
-  <si>
-    <t>['kencang', 'hujan', 'angin', 'cuaca_ekstrem', 'cuaca', 'kali', 'kendaraan', 'kapal', 'angin_kencang', 'gelombang', 'bmkg', 'lingkungan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1754,9 +1688,6 @@
     <t>tim, wilayah, bali, jalan, mobil, warga, lokasi, genangan, banjir</t>
   </si>
   <si>
-    <t>['kemarin', 'ketinggian', 'upaya', 'cuaca', 'banjir', 'sungai', 'menyebut', 'genangan', 'surut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir yang melanda Kecamatan Gabus, Kabupaten Pati, berangsur surut. Meski_x000D_
@@ -1816,9 +1747,6 @@
   </si>
   <si>
     <t>tim, kecamatan, jalan, warga, lokasi, tersendat, genangan, banjir</t>
-  </si>
-  <si>
-    <t>['jawa', 'terendam_banjir', 'cuaca', 'banjir', 'semarang', 'kendaraan', 'genangan', 'surut']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -1875,9 +1803,6 @@
     <t>korban, peristiwa, bali, jalan, keterangan, warga, benturan, rawan, kebakaran</t>
   </si>
   <si>
-    <t>['makassar', 'luka', 'kebakaran', 'pemerintah', 'peristiwa', 'tumbang', 'pohon_tumbang', 'menyebut', 'sungai', 'pohon']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Wali Kota Makassar Moh Ramdhan 'Danny' Pomanto membesuk 5 korban pohon tumbang_x000D_
@@ -1936,9 +1861,6 @@
     <t>korban, tim, hujan, lokasi, waktu, tertimpa, diterjang, kencang, angin, bergerak</t>
   </si>
   <si>
-    <t>['makassar', 'kencang', 'luka', 'hujan', 'angin', 'tumbang', 'pohon_tumbang', 'sulsel', 'angin_kencang', 'atap', 'pohon']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kakek bernama Dg Gewa (80) di Kota Makassar, Sulawesi Selatan (Sulsel) ditimpa_x000D_
@@ -1990,9 +1912,6 @@
   </si>
   <si>
     <t>pantauan, waktu, banjir</t>
-  </si>
-  <si>
-    <t>['pesisir', 'jakarta', 'bpbd', 'bpbd_dki', 'laut', 'ketinggian', 'banjir_rob', 'banjir', 'rob', 'dki_jakarta', 'waspada']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2034,9 +1953,6 @@
     <t>korban, akibat, gempa, tim, kecamatan, warga, lokasi, tertimbun, susulan, bumi, longsor</t>
   </si>
   <si>
-    <t>['ditemukan', 'cianjur', 'jiwa', 'longsor', 'luka', 'gempa_bumi', 'jawa', 'lahan', 'pemerintah', 'gempa', 'gempa_susulan', 'magnitudo', 'bmkg', 'kali']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Delapan warga di Kecamatan Cugenang, Kabupaten Cianjur, Jawa Barat, hingga_x000D_
 kini belum ditemukan._x000D_
 _x000D_
@@ -2104,9 +2020,6 @@
     <t>akibat, gempa, tanah, runtuh, tim, posko, wilayah, jalan, bantuan, keterangan, tertimpa, bumi, longsor, longsoran</t>
   </si>
   <si>
-    <t>['cianjur', 'gempa_bumi', 'program', 'penanganan', 'gempa', 'terdampak', 'menyebut', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dinas Ketahanan Pangan dan Peternakan (DKPP) Jawa Barat melaporkan banyak_x000D_
@@ -2159,9 +2072,6 @@
     <t>korban, wilayah, bali, kendaraan, lokasi, waktu, terjal</t>
   </si>
   <si>
-    <t>['ketinggian', 'kebakaran', 'penanganan', 'kendaraan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Pemotor yang jatuh dari Jembatan Soekarno-Hatta (Suhat) Kota Malang adalah_x000D_
@@ -2217,9 +2127,6 @@
   </si>
   <si>
     <t>bencana, akibat, peristiwa, tanah, tim, hujan, warga, banjir, longsor, meteor, bandang, angin</t>
-  </si>
-  <si>
-    <t>['longsor', 'hujan', 'angin', 'laut', 'cuaca', 'banjir', 'pemerintah', 'peristiwa', 'kali', 'fenomena', 'banjir_bandang', 'alam', 'bpbd', 'waspada']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2282,9 +2189,6 @@
     <t>korban, akibat, wilayah, bali, jalan, lokasi, banjir, tanggul</t>
   </si>
   <si>
-    <t>['kemarin', 'jawa', 'cuaca_ekstrem', 'penanganan', 'banjir', 'semarang', 'sungai', 'pengungsi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sejumlah daerah di Jawa Tengah dilanda banjir akibat cuaca ekstrem di akhir_x000D_
@@ -2356,9 +2260,6 @@
     <t>korban, peristiwa, kerusakan, tim, wilayah, negara, hujan, warga, kencang, angin</t>
   </si>
   <si>
-    <t>['jakarta', 'kencang', 'hujan', 'angin', 'kebakaran', 'peristiwa', 'tumbang', 'pohon_tumbang', 'menyebut', 'pohon']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Suku Dinas Penanggulangan Kebakaran dan Penyelamatan (Gulkarmat) Jakarta Timur_x000D_
@@ -2399,9 +2300,6 @@
   </si>
   <si>
     <t>penanggulangan, bencana, wilayah, menimbulkan, kabupaten, jalan, pelaksanaan, hujan, lokasi, waktu, badai, banjir, meluas, lebat, siklon, angin, klimatologi</t>
-  </si>
-  <si>
-    <t>['jakarta', 'waspada', 'hujan', 'angin', 'laut', 'jawa', 'banjir_rob', 'bangunan', 'cuaca', 'banjir', 'dki_jakarta', 'lebat', 'bmkg', 'hujan_lebat', 'potensi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2504,9 +2402,6 @@
     <t>kelurahan, curah, wilayah, masyarakat, hujan, rawan, penghujan, genangan, banjir, perlambatan, lebat, angin</t>
   </si>
   <si>
-    <t>['kemarin', 'waspada', 'hujan', 'angin', 'laut', 'banjir', 'lebat', 'bmkg', 'hujan_lebat', 'genangan', 'fenomena']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir merendam ratusan rumah di 5 kelurahan Kota Banyuwangi sejak Senin_x000D_
@@ -2563,9 +2458,6 @@
     <t>akibat, gempa, kerusakan, wilayah, masyarakat, bali, keterangan, getaran, bumi, bahaya, sesar</t>
   </si>
   <si>
-    <t>['gempa_bumi', 'laut', 'bangunan', 'gempa', 'getaran', 'bmkg']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Badan Meteorologi, Klimatologi, dan Geofisika (BMKG) Stasiun Geofisika_x000D_
 Kelas III Kepahiang, mencatat terjadi 912 kali gempa bumi melanda Bengkulu_x000D_
 sepanjang 2022._x000D_
@@ -2625,9 +2517,6 @@
     <t>korban, peristiwa, bali, terletak, pantauan, kendaraan, warga, lokasi, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'api', 'kebakaran', 'penanganan', 'menyebut', 'damkar', 'unit', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Lapak rongsok di Jalan Musyawarah, Kebon Jeruk, Jakarta Barat, kebakaran_x000D_
 pada Kamis (1/12/2022) pagi._x000D_
 _x000D_
@@ -2660,9 +2549,6 @@
     <t>akibat, menimbulkan, masyarakat, warga, ledakan, kebakaran</t>
   </si>
   <si>
-    <t>['kegiatan', 'kebakaran', 'titik']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Menjelang Natal dan Tahun Baru 2023, Pemkot Surabaya mengeluarkan sejumlah_x000D_
@@ -2718,9 +2604,6 @@
   </si>
   <si>
     <t>korban, bencana, akibat, peristiwa, tanah, wilayah, masyarakat, kecamatan, bali, jalan, hujan, penghujan, longsor, kencang, meteor, angin</t>
-  </si>
-  <si>
-    <t>['longsor', 'kencang', 'kemarin', 'hujan', 'angin', 'tumbang', 'pohon_tumbang', 'potensi', 'kali', 'titik', 'alam', 'angin_kencang', 'gelombang', 'terdampak', 'pohon']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2768,9 +2651,6 @@
     <t>akibat, kerusakan, tim, masyarakat, kecamatan, bali, jalan, mengerahkan, warga, banjir, terjangan, angin</t>
   </si>
   <si>
-    <t>['angin', 'cuaca_ekstrem', 'banjir', 'pemerintah', 'sulsel', 'sampah', 'pantai']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sebanyak 15 ton sampah berserakan di sepanjang pesisir Pantai Kuri Caddi,_x000D_
@@ -2820,9 +2700,6 @@
   </si>
   <si>
     <t>mengguyur, tim, wilayah, hujan, lebat, petir, kencang, angin</t>
-  </si>
-  <si>
-    <t>['petir', 'kencang', 'waspada', 'hujan', 'angin', 'lebat', 'cuaca']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -2876,9 +2753,6 @@
     <t>korban, akibat, gempa, runtuh, tim, bali, lokasi, mengguncang, tertimbun, bumi, longsor, longsoran</t>
   </si>
   <si>
-    <t>['ditemukan', 'cianjur', 'longsor', 'gempa_bumi', 'mengungsi', 'kali', 'gempa', 'titik']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sebanyak 8 orang berstatus masih hilang tertimbun longsor dan puing bangunan_x000D_
@@ -2927,9 +2801,6 @@
     <t>korban, peristiwa, kerusakan, tanah, jalan, bantuan, hujan, warga, diterjang, kencang, angin</t>
   </si>
   <si>
-    <t>['jakarta', 'kencang', 'kemarin', 'hujan', 'angin', 'peristiwa', 'membantu', 'angin_kencang', 'tanah', 'atap']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rumah kontrakan yang roboh usai diterjang hujan disertai angin kencang bak_x000D_
 puting beliung di Jalan Jelambar Baru I, Jelambar, Grogol Petamburan, Jakarta_x000D_
 Barat, mulai dipagari pada Senin (28/11/2022)._x000D_
@@ -2981,9 +2852,6 @@
   </si>
   <si>
     <t>akibat, tanah, hujan, pekerjaan, lokasi, luapan, banjir, susulan, kencang, tanggul, luap, angin</t>
-  </si>
-  <si>
-    <t>['kencang', 'hujan', 'angin', 'ketinggian', 'banjir', 'rob', 'kali', 'angin_kencang', 'gelombang', 'tanah', 'surut', 'pantai', 'semarang']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3044,9 +2912,6 @@
     <t>korban, pelaku, bantuan, kendaraan, keterangan, lokasi, beku, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'api', 'polisi', 'kebakaran', 'mengungsi', 'pelaku', 'bangunan', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Seorang cucu tega membakar rumah kakeknya sendiri di Desa Bagorejo, Kecamatan_x000D_
@@ -3110,9 +2975,6 @@
     <t>korban, tanah, runtuh, tim, warga, lokasi, rawan, tertimbun, menimbun, longsor, terbawa</t>
   </si>
   <si>
-    <t>['makassar', 'ditemukan', 'jiwa', 'longsor', 'bpbd', 'sungai', 'unit']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Longsor di Kelurahan Bontolerung, Kecamatan Tinggimoncong, Gowa, Sulawesi_x000D_
@@ -3169,9 +3031,6 @@
   </si>
   <si>
     <t>bencana, tanah, wilayah, bali, negara, hujan, rawan, banjir, sambaran, lebat, petir, longsor, kencang, meteor, gunung, pegunungan, angin</t>
-  </si>
-  <si>
-    <t>['petir', 'berpotensi', 'longsor', 'kencang', 'hujan', 'angin', 'jawa', 'cuaca', 'banjir', 'semarang', 'lebat', 'angin_kencang', 'hujan_lebat']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3221,9 +3080,6 @@
     <t>akibat, bali, mobil, warga, lokasi, waktu, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'api', 'jawa', 'kebakaran', 'bangunan', 'pasar', 'pembangunan', 'damkar']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Pemadaman api di lokasi kebakaran Pasar Ciawi Kabupaten Tasikmalaya, Jawa_x000D_
 Barat, butuh waktu sampai 4,5 jam sampai pukul 20.00 WIB, Minggu (18/12/2022)._x000D_
 _x000D_
@@ -3283,9 +3139,6 @@
   </si>
   <si>
     <t>korban, bencana, tanah, tim, jalan, kendaraan, pengendara, jalannya, rawan, longsor, gunung</t>
-  </si>
-  <si>
-    <t>['berpotensi', 'longsor', 'luka', 'tumbang', 'pohon_tumbang', 'titik', 'kendaraan', 'alam', 'menyebut']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3356,9 +3209,6 @@
   </si>
   <si>
     <t>korban, akibat, gempa, peristiwa, wilayah, masyarakat, pelaku, keterangan, warga, lokasi, mengguncang, bumi, lempeng, subduksi, sesar, tektonik</t>
-  </si>
-  <si>
-    <t>['kedalaman', 'luka', 'polisi', 'gempa_bumi', 'laut', 'jawa', 'pelaku', 'bandung', 'pemerintah', 'kali', 'gempa', 'titik', 'pusat_gempa', 'magnitudo', 'unit']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3502,9 +3352,6 @@
     <t>korban, bantuan, warga, lokasi, kebakaran, pergerakan</t>
   </si>
   <si>
-    <t>['jakarta', 'kebakaran', 'dki_jakarta', 'terdampak', 'menyebut', 'unit', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Penjabat (Pj) Gubernur DKI Jakarta Heru Budi Hartono berencana meninjau lokasi_x000D_
@@ -3547,9 +3394,6 @@
     <t>kerusakan, tanah, jalan, hujan, mobil, warga, lokasi, banjir, longsor</t>
   </si>
   <si>
-    <t>['kedalaman', 'proyek', 'longsor', 'hujan', 'cuaca', 'dibangun', 'banjir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Setelah fondasi selesai dicor, perbaikan longsor Jl Pangkalan 1A di_x000D_
@@ -3587,9 +3431,6 @@
   </si>
   <si>
     <t>mengguyur, jalan, kendaraan, hujan, lokasi, genangan, banjir</t>
-  </si>
-  <si>
-    <t>['jakarta', 'polisi', 'hujan', 'bpbd_dki', 'ketinggian', 'banjir', 'titik', 'genangan', 'kendaraan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3652,9 +3493,6 @@
     <t>jalan, kendaraan, hujan, warga, lokasi, genangan, kemacetan</t>
   </si>
   <si>
-    <t>['hujan', 'tumbang', 'kendaraan', 'membantu', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Sejumlah ruas Jalan Pelang-Tumbang Titi, Kabupaten Ketapang, Kalimantan_x000D_
 Barat (Kalbar) rusak._x000D_
 _x000D_
@@ -3685,9 +3523,6 @@
   </si>
   <si>
     <t>masyarakat, kecamatan, jalan, warga, banjir, meluas, terkepung</t>
-  </si>
-  <si>
-    <t>['makassar', 'mengungsi', 'terendam_banjir', 'banjir', 'kali', 'titik', 'sulsel', 'terdampak', 'terdampak_banjir', 'pengungsi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3754,9 +3589,6 @@
     <t>akibat, gempa, kerusakan, wilayah, masyarakat, keterangan, mengguncang, getaran, susulan, bumi</t>
   </si>
   <si>
-    <t>['kedalaman', 'bpbd', 'kemarin', 'gempa_bumi', 'laut', 'bangunan', 'gempa', 'gempa_susulan', 'titik', 'pusat_gempa', 'getaran', 'kali']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa susulan masih terus terjadi di Karangasem. Laporan hingga Rabu_x000D_
@@ -3809,9 +3641,6 @@
     <t>akibat, kerusakan, jalan, kendaraan, pengendara, lokasi, tersendat, menerjang, tertiup, kencang, angin, bergerak</t>
   </si>
   <si>
-    <t>['proyek', 'kencang', 'angin', 'bangunan', 'peristiwa', 'fenomena', 'kendaraan', 'angin_kencang', 'atap', 'menyebut', 'pohon']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Angin kencang terjadi di kawasan Driyorejo, Gresik. Saking kencangnya angin_x000D_
@@ -3868,9 +3697,6 @@
   </si>
   <si>
     <t>masyarakat, langi, negara, warga, lokasi</t>
-  </si>
-  <si>
-    <t>['api']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -3933,9 +3759,6 @@
     <t>akibat, gempa, tim, keterangan, waktu</t>
   </si>
   <si>
-    <t>['kedalaman', 'kali', 'gempa', 'bmkg']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dalam kurun waktu 8 jam, terjadi gempa dua kali di Kabupaten Malang-Jatim._x000D_
@@ -3972,9 +3795,6 @@
   </si>
   <si>
     <t>bencana, wilayah, masyarakat, pantauan, hujan, warga, lokasi, badai, rawan, meluas, lebat, kencang, angin</t>
-  </si>
-  <si>
-    <t>['jakarta', 'kencang', 'bpbd', 'hujan', 'angin', 'jawa', 'cuaca_ekstrem', 'kebakaran', 'arah', 'tumbang', 'pohon_tumbang', 'potensi', 'lebat', 'terdampak', 'hujan_lebat', 'waspada', 'cuaca', 'pohon']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Kepala Bidang Pencegahan Dan Kesiapsiagaan BPBD Kabupaten Bekasi, Said_x000D_
@@ -4055,9 +3875,6 @@
   </si>
   <si>
     <t>tim, wilayah, masyarakat, bali, keterangan, rawan, banjir, angin, bergerak</t>
-  </si>
-  <si>
-    <t>['pesisir', 'tanggal', 'angin', 'laut', 'cuaca_ekstrem', 'banjir_rob', 'cuaca', 'banjir', 'rob', 'kali', 'kapal', 'gelombang', 'terdampak', 'terdampak_banjir', 'bmkg', 'waspada']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4133,9 +3950,6 @@
     <t>akibat, masyarakat, bali, kendaraan, mencegah, rawan, bahaya, penumpukan, kencang, angin</t>
   </si>
   <si>
-    <t>['kencang', 'kemarin', 'angin', 'cuaca_ekstrem', 'cuaca', 'kendaraan', 'kapal', 'angin_kencang', 'gelombang', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Aktivitas penyeberangan di Selat Bali kembali ditutup sementara akibat angin_x000D_
@@ -4186,9 +4000,6 @@
     <t>korban, akibat, posko, bali, bantuan, negara, mobil, warga, lokasi, waktu, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['jakarta', 'terbakar', 'jiwa', 'api', 'kebakaran', 'mengungsi', 'upaya', 'penanganan', 'lantai', 'damkar', 'terdampak', 'unit', 'pengungsi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Kebakaran terjadi di kawasan Kampung Pulo, Kelurahan Kampung Melayu,_x000D_
 Kecamatan Jatinegara, Jakarta Timur, Minggu (25/12/2022)._x000D_
 _x000D_
@@ -4273,9 +4084,6 @@
     <t>bencana, gempa, bali, jalan, langi, struktur, ucapan, ketua, banjir, bumi, longsor</t>
   </si>
   <si>
-    <t>['longsor', 'gempa_bumi', 'pembangunan', 'banjir', 'kali', 'gempa', 'alam', 'jokowi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Presiden Joko Widodo (Jokowi) mengunggah kartun bertema tahun baru 2023. Dalam_x000D_
@@ -4344,9 +4152,6 @@
     <t>gempa, menimbulkan, warga, getaran, susulan, guncangan, bumi</t>
   </si>
   <si>
-    <t>['kedalaman', 'gempa_bumi', 'gempa', 'pusat_gempa', 'getaran', 'bmkg', 'lingkungan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa M 6,2 yang terjadi di 284 kilometer barat daya Jember terasa hingga_x000D_
@@ -4384,9 +4189,6 @@
     <t>gempa, kerusakan, runtuh, menimbulkan, lokasi, bumi, tsunami, hiposentrum</t>
   </si>
   <si>
-    <t>['kedalaman', 'jakarta', 'bangunan', 'gempa', 'titik', 'pusat_gempa', 'alam', 'gelombang', 'bmkg', 'tsunami']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Berikut adalah kunci jawaban mata pelajaran Ilmu Pengetahuan Alam (IPA)_x000D_
 kelas 7 SMP halaman 115 semester 2 Kurikulum 2013._x000D_
 _x000D_
@@ -4455,9 +4257,6 @@
     <t>curah, tim, wilayah, kecamatan, jalan, hujan, warga, lokasi, banjir</t>
   </si>
   <si>
-    <t>['bpbd', 'hujan', 'banjir', 'membantu', 'terdampak_banjir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Beberapa wilayah di Kabupaten Pati, Jawa Tengah kebanjiran imbas curah hujan_x000D_
@@ -4500,9 +4299,6 @@
   </si>
   <si>
     <t>tanah, tim, masyarakat, terletak, keterangan, hujan, mencegah, rawan, genangan, banjir, tertimpa, kekeringan</t>
-  </si>
-  <si>
-    <t>['proyek', 'hujan', 'jawa', 'pembangunan', 'banjir', 'bendungan', 'tanah', 'genangan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4599,9 +4395,6 @@
     <t>gempa, kerusakan, mengguncang, getaran, bumi, meteor</t>
   </si>
   <si>
-    <t>['gempa_bumi', 'laut', 'gempa', 'pusat_gempa', 'getaran', 'bmkg']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi berkekuatan magnitudo (M) 4,6 mengguncang Kabupaten Halmahera_x000D_
@@ -4649,9 +4442,6 @@
   </si>
   <si>
     <t>bencana, akibat, tim, wilayah, masyarakat, jalan, lokasi, rawan, luapan, banjir, dihantam, ombak, kencang, luap, angin</t>
-  </si>
-  <si>
-    <t>['pesisir', 'kencang', 'angin', 'laut', 'jawa', 'cuaca', 'banjir', 'angin_kencang', 'surut']</t>
   </si>
   <si>
     <t xml:space="preserve"> \- Badan Penanggulangan Bencana Daerah (BPBD) Kabupaten Tangerang, Banten_x000D_
@@ -4693,9 +4483,6 @@
     <t>korban, gempa, kerusakan, tim, keterangan, bumi</t>
   </si>
   <si>
-    <t>['kedalaman', 'jiwa', 'gempa_bumi', 'laut', 'gempa', 'titik', 'pusat_gempa', 'bmkg', 'magnitudo']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Badan Meteorologi, Klimatologi, dan Geofisika (BMKG) menyampaikan terjadi_x000D_
@@ -4724,9 +4511,6 @@
   </si>
   <si>
     <t>akibat, hujan, warga, waktu, genangan, banjir, meluap, menggenangi, terbawa, meluapnya, luap</t>
-  </si>
-  <si>
-    <t>['bpbd', 'hujan', 'genangan', 'banjir']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4775,9 +4559,6 @@
     <t>gempa, pantauan, guncangan, bumi, tsunami</t>
   </si>
   <si>
-    <t>['kedalaman', 'jakarta', 'gempa_bumi', 'jawa', 'gempa', 'pusat_gempa', 'bmkg', 'tsunami']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi berkekuatan M 6,4 berpusat di Garut, Jawa Barat. Gempa ini_x000D_
@@ -4807,9 +4588,6 @@
   </si>
   <si>
     <t>gempa, tim, wilayah, menimbulkan, kabupaten, bali, keterangan, lokasi, getaran, tsunami</t>
-  </si>
-  <si>
-    <t>['gempa', 'getaran', 'bmkg', 'tsunami']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4848,9 +4626,6 @@
   </si>
   <si>
     <t>bencana, akibat, peristiwa, tim, wilayah, jalan, kendaraan, warga, lokasi, mengutarakan, banjir, meluap, diterjang, rusaknya, longsor, luap, bandang, bergerak</t>
-  </si>
-  <si>
-    <t>['longsor', 'luka', 'bpbd', 'banjir', 'peristiwa', 'meluap', 'banjir_bandang', 'sulsel', 'menyebut']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -4909,9 +4684,6 @@
     <t>curah, bali, jalan, hujan, mobil, banjir, lebat</t>
   </si>
   <si>
-    <t>['hujan', 'ketinggian', 'banjir_rob', 'banjir', 'rob', 'semarang', 'lebat', 'hujan_lebat']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Pelabuhan Tanjung Emas Semarang kembali direndam banjir rob. Hal itu_x000D_
 membuat pegawai Bea Cukai Tanjung Emas terpaksa diangkut menggunakan_x000D_
 transportasi darurat._x000D_
@@ -4953,9 +4725,6 @@
   </si>
   <si>
     <t>korban, bencana, gempa, peristiwa, tim, posko, wilayah, masyarakat, kecamatan, bali, jalan, bantuan, kemanusiaan, mengerahkan, keterangan, mobil, warga, lokasi, waktu, menghantam, guncangan, bumi, bergerak</t>
-  </si>
-  <si>
-    <t>['jakarta', 'cianjur', 'gempa_bumi', 'kegiatan', 'jawa', 'mengungsi', 'pemerintah', 'peristiwa', 'gempa', 'membantu', 'magnitudo', 'terdampak', 'unit', 'mobil', 'bantuan', 'jokowi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -5039,9 +4808,6 @@
     <t>bencana, curah, wilayah, masyarakat, kecamatan, jalan, hujan, warga, rawan, penghujan, menerjang, lebat, petir, kencang, meteor, angin, pergerakan, topografi</t>
   </si>
   <si>
-    <t>['petir', 'kencang', 'hujan', 'angin', 'potensi', 'lebat', 'angin_kencang', 'atap', 'menyebut', 'hujan_lebat', 'bmkg']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Selama dua hari berturut-turut angin puting beliung menerjang dua kecamatan di_x000D_
@@ -5089,9 +4855,6 @@
     <t>wilayah, jalan, badan, lokasi, kencang, angin</t>
   </si>
   <si>
-    <t>['kencang', 'hujan', 'angin', 'arah', 'tumbang', 'pohon_tumbang', 'angin_kencang', 'pohon', 'alam']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Hujan disertai angin kencang melanda wilayah Tangerang Selatan pada Sabtu_x000D_
 (17/12/2022) sore sekitar pukul 15.00 WIB._x000D_
 _x000D_
@@ -5124,9 +4887,6 @@
     <t>tim, bali, jalan, mengerahkan, pengendara, warga, lokasi, ditambah, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['makassar', 'terbakar', 'api', 'kios', 'kegiatan', 'kebakaran', 'pasar', 'pembangunan', 'dibangun', 'menyebut', 'sampah', 'unit', 'terdampak']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kebakaran terjadi di Pasar Sentral Makassar, Selasa (27/12/2022) malam._x000D_
 _x000D_
 Dalam sebuah video yang beredar di media sosial, sejumlah kios yang_x000D_
@@ -5258,9 +5018,6 @@
     <t>akibat, wilayah, masyarakat, bali, jalan, terletak, kendaraan, pelaksanaan, struktur, ucapan, warga, dibanjiri, banjir</t>
   </si>
   <si>
-    <t>['berpotensi', 'luka', 'bangunan', 'pembangunan', 'pemerintah', 'banjir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ajakan Pemerintah Kota (Pemkot) Depok kepada masyarakat untuk membuat video_x000D_
 ucapan terima kasih atas pembangunan infrastruktur yang sudah dikerjakan_x000D_
 Pemkot dibanjiri kritik._x000D_
@@ -5389,9 +5146,6 @@
   </si>
   <si>
     <t>tanah, tim, bali, jalan, jalannya, waktu, pergerakan</t>
-  </si>
-  <si>
-    <t>['jakarta', 'tanah']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -5463,9 +5217,6 @@
     <t>bencana, akibat, curah, tim, wilayah, bali, jalan, hujan, lokasi, rawan, luapan, genangan, banjir, menggenangi, longsor, terbawa, luap, bergerak</t>
   </si>
   <si>
-    <t>['longsor', 'kemarin', 'hujan', 'ketinggian', 'terendam_banjir', 'banjir', 'pemerintah', 'kali', 'kereta', 'sampah', 'pohon', 'genangan', 'bpbd', 'tanah']</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Badan Penanggulangan Bencana Daerah (BPBD) Kulon Progo, Daerah Istimewa_x000D_
 Yogyakarta akan menerbitkan surat edaran bagi panewu (camat) hingga lurah_x000D_
 (kepala desa) agar menggiatkan normalisasi drainase. Hal ini untuk_x000D_
@@ -5538,9 +5289,6 @@
   </si>
   <si>
     <t>korban, akibat, peristiwa, acara, tim, pelaku, jalan, negara, kendaraan, keterangan, hujan, mobil, warga, lokasi, banjir, menerjang, bumi, bertabrakan, longsor, longsoran, bandang, bergerak</t>
-  </si>
-  <si>
-    <t>['jakarta', 'ditemukan', 'proyek', 'jiwa', 'longsor', 'luka', 'polisi', 'kemarin', 'hujan', 'arah', 'bandung', 'penanganan', 'banjir', 'kali', 'kereta', 'banjir_bandang', 'mobil', 'pengungsi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -5738,9 +5486,6 @@
     <t>gempa, keterangan, bumi</t>
   </si>
   <si>
-    <t>['gempa_bumi', 'jawa', 'gempa', 'pusat_gempa']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi berkekuatan magnitudo (M) 3,4 guncang perairan Kabupaten Cilacap,_x000D_
@@ -5771,9 +5516,6 @@
   </si>
   <si>
     <t>korban, bencana, gempa, posko, wilayah, masyarakat, bali, bantuan, kemanusiaan, lokasi, bumi</t>
-  </si>
-  <si>
-    <t>['cianjur', 'bangunan', 'pembangunan', 'penanganan', 'kali', 'gempa', 'titik', 'terdampak', 'bantuan', 'jokowi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -5817,9 +5559,6 @@
     <t>jalan, mobil, warga, lokasi, banjir, menggenangi, tanggul</t>
   </si>
   <si>
-    <t>['laut', 'ketinggian', 'banjir', 'semarang', 'titik', 'menyebut', 'mobil', 'surut', 'pantai']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir di kawasan Pantai Marina Semarang siang ini berangsur surut. Ketinggian_x000D_
@@ -5887,9 +5626,6 @@
     <t>korban, bencana, akibat, wilayah, bali, hujan, warga, banjir, bandang</t>
   </si>
   <si>
-    <t>['jiwa', 'bpbd', 'hujan', 'banjir', 'peristiwa', 'banjir_bandang', 'alam', 'terdampak_banjir', 'pengungsi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Kabupaten Kepulauan Siau Tagulandang Biaro (Sitaro), Sulawesi Utara_x000D_
 (Sulut), dilanda banjir bandang, Minggu (18/12/2022)._x000D_
 _x000D_
@@ -5925,9 +5661,6 @@
   </si>
   <si>
     <t>korban, bencana, akibat, gempa, peristiwa, tim, warga, tertimbun, bumi</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'jiwa', 'gempa_bumi', 'pemerintah', 'peristiwa', 'gempa', 'cianjur']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -5975,9 +5708,6 @@
     <t>akibat, bali, jalan, kendaraan, pengendara, genangan, banjir</t>
   </si>
   <si>
-    <t>['arah', 'pasar', 'bandung', 'banjir', 'kendaraan', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Antrean kendaraan sempat terjadi di Jalan Raya Soekarno-Hatta, Kota Bandung,_x000D_
@@ -6016,9 +5746,6 @@
   </si>
   <si>
     <t>akibat, hujan, banjir, meluap, pendangkalan, menggenangi, luap, hujannya</t>
-  </si>
-  <si>
-    <t>['kedalaman', 'bpbd', 'hujan', 'mengungsi', 'terendam_banjir', 'penanganan', 'banjir', 'meluap', 'lantai', 'kali', 'damkar', 'sungai', 'bendungan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -6062,9 +5789,6 @@
     <t>akibat, wilayah, bali, pantauan, hujan, lokasi, rawan, tersambar, sambaran, nyambar, bahaya, lebat, kabut, petir, kencang, angin</t>
   </si>
   <si>
-    <t>['petir', 'kencang', 'hujan', 'angin', 'cuaca', 'lebat', 'kapal', 'angin_kencang', 'hujan_lebat']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Cuaca buruk akibat hujan lebat disertai kabut mempengaruhi jarak pandang_x000D_
@@ -6112,9 +5836,6 @@
     <t>tanah, curah, wilayah, masyarakat, bali, jalan, hujan, warga, pergerakan</t>
   </si>
   <si>
-    <t>['jakarta', 'hujan', 'bpbd_dki', 'pasar', 'dki_jakarta', 'sungai', 'tanah', 'bmkg', 'bpbd', 'waspada', 'potensi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Badan Penanggulangan Bencana Daerah (BPBD) DKI Jakarta mengimbau warga agar_x000D_
@@ -6207,9 +5928,6 @@
   </si>
   <si>
     <t>korban, peristiwa, wilayah, jalan, terletak, bantuan, hujan, warga, lokasi, waktu, tersambar, banjir, sambaran, nyambar, kebakaran, petir, terbakar, kencang, angin</t>
-  </si>
-  <si>
-    <t>['sekolah', 'jakarta', 'terbakar', 'petir', 'kencang', 'api', 'kemarin', 'hujan', 'bpbd_dki', 'angin', 'kebakaran', 'mengungsi', 'arah', 'cuaca', 'peristiwa', 'dki_jakarta', 'lantai', 'kali', 'angin_kencang', 'terdampak', 'unit', 'bantuan']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Kebakaran melanda 25 unit rumah kontrakan di Jalan Manggarai Utara II,_x000D_
@@ -6408,9 +6126,6 @@
     <t>mengguyur, wilayah, bali, jalan, kendaraan, mobil, warga, lokasi, tersendat, genangan, banjir</t>
   </si>
   <si>
-    <t>['sekolah', 'jakarta', 'hujan', 'arah', 'banjir', 'kali', 'titik', 'kendaraan', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Hujan deras mengguyur sejumlah wilayah di DKI Jakarta. Beberapa titik di Ibu_x000D_
@@ -6447,9 +6162,6 @@
   </si>
   <si>
     <t>bencana, gempa, acara, wilayah, bali, jalan, keterangan, lokasi, waktu, erupsi, bumi</t>
-  </si>
-  <si>
-    <t>['jakarta', 'cianjur', 'gempa_bumi', 'upaya', 'penanganan', 'gempa', 'membantu', 'alam']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -6504,9 +6216,6 @@
     <t>korban, bencana, hujan, warga, lokasi, waktu, banjir</t>
   </si>
   <si>
-    <t>['bpbd', 'kemarin', 'waspada', 'hujan', 'banjir', 'sungai']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir lahar hujan Gunung Merapi mulai menjangkau Sungai Woro di Kabupaten_x000D_
@@ -6578,9 +6287,6 @@
     <t>akibat, tanah, tim, jalan, pengendara, hujan, mobil, warga, lokasi, waktu, banjir, tamak</t>
   </si>
   <si>
-    <t>['makassar', 'hujan', 'banjir', 'sulsel', 'tanah', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dinas Pekerjaan Umum (PU) Kota Makassar, Sulawesi Selatan (Sulsel) turut buka_x000D_
@@ -6644,9 +6350,6 @@
     <t>bencana, tim, hujan, pekerjaan, lokasi, waktu, genangan, banjir, tsunami</t>
   </si>
   <si>
-    <t>['proyek', 'tanggal', 'kemarin', 'hujan', 'pembangunan', 'cuaca', 'banjir', 'pantai', 'tsunami', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Proyek penataan pantai Seminyak, Legian dan Kuta (Samigita) dijadwalkan akan_x000D_
@@ -6719,9 +6422,6 @@
     <t>korban, akibat, peristiwa, masyarakat, bali, jalan, keterangan, ucapan, warga, pekerjaan, waktu, banjir, ledakan, meledak, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['makassar', 'terbakar', 'api', 'jawa', 'ketinggian', 'kebakaran', 'peristiwa', 'alam']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Meninggalnya Seleb TikTok Nirwana Selle pada Kamis (22/12/2022) dini hari_x000D_
 lalu masih menyisakan duka mendalam bagi keluarga, kerabat serta sahabat._x000D_
 _x000D_
@@ -6931,9 +6631,6 @@
     <t>peristiwa, bali, mobil, warga, kebakaran, angin</t>
   </si>
   <si>
-    <t>['api', 'polisi', 'angin', 'jawa', 'kebakaran', 'peristiwa']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kebakaran menghanguskan sebuah toko di Jalan Kemuning, Kelurahan Tamanan,_x000D_
 Kecamatan Mojoroto, Kota Kediri, Jawa Timur, Senin (5/12/2022)._x000D_
 _x000D_
@@ -6975,9 +6672,6 @@
     <t>bencana, bantuan, keterangan, warga, banjir</t>
   </si>
   <si>
-    <t>['bpbd', 'penanganan', 'banjir', 'rob', 'pantai', 'titik', 'terdampak_banjir', 'bantuan', 'surut', 'terdampak']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Badan Penanggulangan Bencana Daerah (BPBD) Kabupaten Bekasi menyalurkan_x000D_
 bantuan untuk warga yang terdampak banjir rob di Muara Gembong._x000D_
 _x000D_
@@ -7018,9 +6712,6 @@
   </si>
   <si>
     <t>korban, akibat, labil, tanah, hujan, warga, longsor, terbawa, longsoran</t>
-  </si>
-  <si>
-    <t>['jiwa', 'longsor', 'hujan', 'jawa', 'mengungsi', 'bangunan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7064,9 +6755,6 @@
     <t>korban, akibat, peristiwa, kerusakan, wilayah, kecamatan, hujan, warga, diterjang, kencang, angin</t>
   </si>
   <si>
-    <t>['jiwa', 'kencang', 'waspada', 'hujan', 'angin', 'angin_kencang', 'terdampak', 'bmkg', 'menyebut', 'unit']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Hujan disertai angin kencang di Polewali Mandar (Polman), Sulawesi Barat_x000D_
@@ -7118,9 +6806,6 @@
     <t>korban, kerusakan, tanah, mobil, warga, banjir, bandang</t>
   </si>
   <si>
-    <t>['penanganan', 'banjir', 'kali', 'banjir_bandang', 'terdampak', 'tanah', 'unit', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Korban meninggal imbas banjir bandang di Desa Sinomwidodo, Pati, bertambah_x000D_
@@ -7170,9 +6855,6 @@
     <t>mengguyur, wilayah, hujan, banjir, ombak, kencang, angin</t>
   </si>
   <si>
-    <t>['kencang', 'hujan', 'angin', 'banjir', 'kapal', 'bmkg']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Beberapa hari belakangan hujan kerap melanda sejumlah wilayah di Sumatera_x000D_
@@ -7217,9 +6899,6 @@
   </si>
   <si>
     <t>korban, akibat, gempa, tim, kendaraan, mobil, mengguncang, tertimbun, bumi, longsor</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'longsor', 'kemarin', 'gempa_bumi', 'gempa', 'titik', 'kendaraan', 'mobil', 'cianjur']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7262,9 +6941,6 @@
     <t>akibat, tim, wilayah, hujan, genangan, banjir, menggenangi, angin</t>
   </si>
   <si>
-    <t>['pesisir', 'berpotensi', 'waspada', 'hujan', 'angin', 'ketinggian', 'arah', 'banjir_rob', 'cuaca', 'banjir', 'rob', 'terdampak', 'genangan', 'bmkg']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Warga di pesisir Surabaya diimbau berhati-hati saat melaksanakan aktivitasnya._x000D_
@@ -7321,9 +6997,6 @@
     <t>bencana, gempa, tanah, acara, tim, bali, jalan, lokasi, mengguncang, tertimbun, menerjang, gundukan, guncangan, lantak, luluh, kilat, longsor, lantakkan, kencang, longsoran</t>
   </si>
   <si>
-    <t>['jakarta', 'cianjur', 'longsor', 'kencang', 'kios', 'bangunan', 'gempa', 'alam', 'tanah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tukang parkir berinisial HS tak henti-hentinya mengucapkan syukur. Dia lolos_x000D_
 dari maut saat tanah longsor susul-menyusul dan mengubur bangunan Arseven_x000D_
 Coffe Corner, tempatnya selama ini bekerja, saat gempa mengguncangn Cianjur,_x000D_
@@ -7459,9 +7132,6 @@
   </si>
   <si>
     <t>tanah, kendaraan, warga, lokasi, longsor, kemacetan</t>
-  </si>
-  <si>
-    <t>['proyek', 'longsor', 'kemarin', 'pembangunan', 'dibangun', 'titik', 'kendaraan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7513,9 +7183,6 @@
     <t>akibat, wilayah, jalan, warga, lokasi, genangan, dihantam, susulan, diterjang, ombak, kencang, angin</t>
   </si>
   <si>
-    <t>['pesisir', 'kencang', 'kemarin', 'angin', 'jawa', 'semarang', 'angin_kencang', 'gelombang', 'atap', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gelombang tinggi terjadi di pesisir Demak, Jawa Tengah. Kini warga setempat_x000D_
@@ -7583,9 +7250,6 @@
   </si>
   <si>
     <t>bencana, wilayah, masyarakat, hujan, warga, lokasi, waktu, badai, banjir, meluas, longsor, angin, klimatologi</t>
-  </si>
-  <si>
-    <t>['longsor', 'bpbd', 'waspada', 'hujan', 'angin', 'jawa', 'cuaca_ekstrem', 'banjir', 'tumbang', 'pohon_tumbang', 'membantu', 'menyebut', 'potensi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7662,9 +7326,6 @@
     <t>korban, akibat, wilayah, masyarakat, jalan, hujan, warga, lokasi, luapan, banjir, meluap, hutan, luap</t>
   </si>
   <si>
-    <t>['bpbd', 'hujan', 'pembangunan', 'banjir', 'meluap', 'sungai', 'terdampak', 'terdampak_banjir', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Dua desa di Kawasan Ekonomi Khusus (KEK) Mandalika Kecamatan Pujut, Kabupaten_x000D_
@@ -7730,9 +7391,6 @@
   </si>
   <si>
     <t>kerusakan, jalan, hujan, genangan, banjir</t>
-  </si>
-  <si>
-    <t>['hujan', 'banjir', 'tumbang', 'pohon_tumbang', 'titik', 'genangan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7778,9 +7436,6 @@
     <t>bencana, akibat, mengguyur, tim, wilayah, kecamatan, hujan, warga, rawan, banjir, meluap, luap</t>
   </si>
   <si>
-    <t>['bpbd', 'kemarin', 'hujan', 'ketinggian', 'mengungsi', 'upaya', 'terendam_banjir', 'banjir', 'meluap', 'sungai', 'terdampak', 'terdampak_banjir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Hujan yang mengguyur Karawang pada Minggu (4/12/2022) petang mengakibatkan_x000D_
@@ -7829,9 +7484,6 @@
     <t>akibat, tanah, mengguyur, tim, bali, jalan, hujan, tanahnya, warga, waktu, banjir, banjirnya, kemacetan</t>
   </si>
   <si>
-    <t>['kemarin', 'hujan', 'ketinggian', 'pasar', 'banjir', 'membantu', 'terdampak_banjir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kecamatan Blega di Kabupaten Bangkalan kembali dilanda banjir. Banjir terjadi_x000D_
@@ -7878,9 +7530,6 @@
   </si>
   <si>
     <t>korban, bencana, gempa, tanah, menimbulkan, warga, lokasi, bumi, diterjang, diguncang, longsor, longsoran, gunung, pascagempa</t>
-  </si>
-  <si>
-    <t>['cianjur', 'longsor', 'gempa_bumi', 'bangunan', 'pembangunan', 'dibangun', 'pemerintah', 'gempa', 'tanah', 'bmkg', 'sampah', 'unit', 'pengungsi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -7960,9 +7609,6 @@
     <t>akibat, gempa, kerusakan, wilayah, masyarakat, keterangan, susulan, guncangan, semangko, bumi, lempeng, sesar, patahan, tsunami, tektonik</t>
   </si>
   <si>
-    <t>['pesisir', 'gempa_bumi', 'laut', 'jawa', 'potensi', 'gempa', 'pusat_gempa', 'terdampak', 'bmkg', 'tsunami']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Badan Meteorologi Klimatologi dan Geofisika (BMKG) mencatat sepanjang 2022_x000D_
 terjadi 1.520 kali gempa tektonik di wilayah Provinsi Banten._x000D_
 _x000D_
@@ -8023,9 +7669,6 @@
   </si>
   <si>
     <t>bencana, acara, wilayah, keterangan, warga, lokasi, ketua, rawan, banjir, kebakaran, kemacetan</t>
-  </si>
-  <si>
-    <t>['jakarta', 'api', 'polisi', 'kegiatan', 'kebakaran', 'banjir', 'titik', 'alam']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8103,9 +7746,6 @@
     <t>akibat, kerusakan, tim, wilayah, bali, menerjang, terjangan, angin</t>
   </si>
   <si>
-    <t>['angin', 'tumbang', 'pohon_tumbang', 'kali', 'terdampak', 'atap']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Fenomena puting beliung kembali terjadi di Sidoarjo. Kali ini angin memilin_x000D_
@@ -8151,9 +7791,6 @@
   </si>
   <si>
     <t>akibat, kerusakan, tanah, curah, tim, jalan, hujan, pekerjaan, lokasi, waktu, banjir, anjlok, turbulensi, turbulen, klimatologi</t>
-  </si>
-  <si>
-    <t>['kemarin', 'hujan', 'banjir', 'tanah']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8223,9 +7860,6 @@
     <t>korban, tim, bali, lokasi, bumi, kebakaran, bergerak</t>
   </si>
   <si>
-    <t>['api', 'kebakaran', 'atap', 'terbakar']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Usai kebakaran yang menimpa RSUD Palabuhanratu, Sukabumi, atap ruang Instalasi_x000D_
@@ -8277,9 +7911,6 @@
   </si>
   <si>
     <t>masyarakat, kecamatan, keterangan, struktur, warga, banjir, topan, kemacetan</t>
-  </si>
-  <si>
-    <t>['program', 'pembangunan', 'penanganan', 'banjir', 'menyebut', 'sampah', 'lingkungan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8355,9 +7986,6 @@
     <t>bali, jalan</t>
   </si>
   <si>
-    <t>['pemerintah', 'kali', 'titik']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Jalan Nasional di Kabupaten Enrekang, Sulawesi Selatan (Sulsel) yang_x000D_
@@ -8431,9 +8059,6 @@
     <t>bencana, kerusakan, tanah, curah, tim, bantuan, hujan, warga, banjir, terjangan, longsor, kencang, bandang, angin</t>
   </si>
   <si>
-    <t>['ditemukan', 'longsor', 'kencang', 'bpbd', 'waspada', 'hujan', 'angin', 'bangunan', 'cuaca', 'penanganan', 'banjir', 'peristiwa', 'banjir_bandang', 'membantu', 'alam', 'atap', 'bmkg', 'unit']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bencana alam angin puting beliung merusak 10 unit rumah warga dan satu kantor_x000D_
 desa di Kabupaten Dompu, Nusa Tenggara Barat (NTB)._x000D_
 _x000D_
@@ -8481,9 +8106,6 @@
     <t>korban, tim, warga, lokasi</t>
   </si>
   <si>
-    <t>['polisi', 'banjir', 'semarang', 'sungai', 'membantu', 'tanah', 'ditemukan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Mayat ditemukan mengambang di Sungai Banjir Kanal Barat dekat Gereja_x000D_
 Katolik Hati Kudus Yesus Tanah Mas, Jalan Krokosono Panggung Lor, Kecamatan_x000D_
 Semarang Utara, Kota Semarang._x000D_
@@ -8518,9 +8140,6 @@
     <t>akibat, curah, tim, bali, jalan, hujan, warga, tersendat, banjir, meluap, lebat, menggenangi, luap</t>
   </si>
   <si>
-    <t>['kemarin', 'hujan', 'ketinggian', 'terendam_banjir', 'banjir', 'meluap', 'lebat', 'sungai', 'surut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir kembali menggenangi permukiman Desa Ketitang Wetan, Kecamatan Batangan,_x000D_
@@ -8561,9 +8180,6 @@
   </si>
   <si>
     <t>tim, masyarakat, jalan, struktur, banjir, kemacetan</t>
-  </si>
-  <si>
-    <t>['pembangunan', 'banjir', 'menyebut']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8622,9 +8238,6 @@
     <t>akibat, tanah, acara, wilayah, masyarakat, jalan, mobil, lokasi, genangan, banjir, bergerak</t>
   </si>
   <si>
-    <t>['jakarta', 'kegiatan', 'cuaca_ekstrem', 'pembangunan', 'penanganan', 'banjir', 'dki_jakarta', 'tanah', 'unit', 'genangan', 'cuaca']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Penjabat (Pj) Gubernur DKI Jakarta Heru Budi Hartono menyambangi _workshop__x000D_
@@ -8695,9 +8308,6 @@
     <t>akibat, peristiwa, warga, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'api', 'polisi', 'kemarin', 'kios', 'kebakaran', 'pasar', 'peristiwa']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polisi melaporkan ada kebakaran di pasar kawasan Deiyai, Papua Tengah yang_x000D_
@@ -8736,9 +8346,6 @@
     <t>korban, akibat, tanah, tim, bali, jalan, pengendara, mobil, lokasi, waktu, tertimpa, tertimbun, susulan, longsor</t>
   </si>
   <si>
-    <t>['ditemukan', 'longsor', 'bpbd', 'polisi', 'kendaraan', 'sulsel', 'sungai', 'tanah', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Akses Jalan Poros Maros-Bone di daerah Camba, Kecamatan Cenrana, Kabupaten_x000D_
@@ -8797,9 +8404,6 @@
   </si>
   <si>
     <t>korban, tanah, menimbulkan, bali, jalan, kendaraan, pengendara, warga, lokasi, susulan, longsor, longsoran</t>
-  </si>
-  <si>
-    <t>['longsor', 'arah', 'potensi', 'kendaraan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -8852,9 +8456,6 @@
     <t>warga, lokasi, waktu, banjir</t>
   </si>
   <si>
-    <t>['kemarin', 'terendam_banjir', 'banjir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 BKSDA Sumatera Utara mengevakuasi buaya berusia 30 tahun dari salah satu rumah_x000D_
@@ -8910,9 +8511,6 @@
     <t>akibat, tanah, tim, lokasi, mencegah, banjir, ombak, kencang, tanggul</t>
   </si>
   <si>
-    <t>['kencang', 'cuaca_ekstrem', 'terendam_banjir', 'banjir', 'titik', 'gelombang', 'tanah', 'pantai', 'semarang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir terjadi di kawasan Pantai Marina Semarang. Puluhan rumah terendam,_x000D_
@@ -8965,9 +8563,6 @@
     <t>korban, akibat, pengendara, mobil, lokasi, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'polisi', 'jawa', 'kebakaran', 'kali', 'damkar', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Satu unit mobil travel yang sedang terparkir di garasi di Jalan Jenderal_x000D_
 Soedirman, Purwokerto, Kabupaten Banyumas, Jawa Tengah, tiba-tiba terbakar,_x000D_
 Senin (26/12/2022)._x000D_
@@ -9002,9 +8597,6 @@
   </si>
   <si>
     <t>korban, peristiwa, tanah, bali, kendaraan, lokasi, kebakaran, terbakar</t>
-  </si>
-  <si>
-    <t>['terbakar', 'api', 'kebakaran', 'kali', 'tanah']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Kebakaran melanda lapak barang rongsokan di Jalan Musyawarah, Kebon Jeruk,_x000D_
@@ -9046,9 +8638,6 @@
   </si>
   <si>
     <t>akibat, tanah, acara, tim, wilayah, masyarakat, bali, jalan, bantuan, keterangan, kemerdekaan, mobil, ketua, bumi, beku, kebencian, bergerak</t>
-  </si>
-  <si>
-    <t>['sekolah', 'makassar', 'tanggal', 'upaya', 'pembangunan', 'pemerintah', 'mobil', 'bantuan']</t>
   </si>
   <si>
     <t xml:space="preserve">Daftar Isi_x000D_
@@ -9259,9 +8848,6 @@
     <t>tim, wilayah, keterangan, hujan, lebat, petir, kencang, angin</t>
   </si>
   <si>
-    <t>['makassar', 'petir', 'kencang', 'tanggal', 'hujan', 'angin', 'cuaca_ekstrem', 'lebat', 'sulsel', 'terdampak', 'bmkg', 'hujan_lebat']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 BMKG Wilayah IV Makassar mengeluarkan peringatan dini cuaca untuk sejumlah_x000D_
@@ -9307,9 +8893,6 @@
     <t>bencana, curah, wilayah, masyarakat, keterangan, hujan, warga, lokasi, rawan, banjir, menggenangi</t>
   </si>
   <si>
-    <t>['waspada', 'hujan', 'ketinggian', 'cuaca_ekstrem', 'banjir_rob', 'cuaca', 'banjir', 'rob', 'titik', 'bmkg', 'bpbd']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Selama bulan Desember 2022, banjir rob diprediksi akan menggenangi sejumlah_x000D_
 wilayah di Banjarmasin, Kalimantan Selatan (Kalsel)._x000D_
 _x000D_
@@ -9350,9 +8933,6 @@
     <t>korban, akibat, gempa, runtuh, tim, posko, masyarakat, bali, keterangan, warga, bumi</t>
   </si>
   <si>
-    <t>['ditemukan', 'cianjur', 'gempa_bumi', 'bangunan', 'gempa', 'polisi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">15 jenazah korban gempa Cianjur, Jawa Barat, belum teridentifikasi hingga hari_x000D_
 ini, Senin (12/12/2022)._x000D_
 _x000D_
@@ -9432,9 +9012,6 @@
     <t>gempa, tim, keterangan, bumi</t>
   </si>
   <si>
-    <t>['gempa_bumi', 'gempa', 'pusat_gempa', 'magnitudo']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi magnitudo (M) 3,1 terjadi di Kabupaten Gunungkidul, Daerah Istimewa_x000D_
@@ -9465,9 +9042,6 @@
   </si>
   <si>
     <t>acara, tim, menimbulkan, bali, keterangan, pelaksanaan, dibanjiri, banjir</t>
-  </si>
-  <si>
-    <t>['pemerintah', 'banjir']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -9583,9 +9157,6 @@
     <t>korban, bencana, akibat, peristiwa, wilayah, masyarakat, jalan, struktur, hujan, warga, lokasi, waktu, rawan, luapan, banjir, meluap, susulan, bumi, bahaya, lebat, longsor, kencang, meteor, tanggul, luap, angin, hujannya</t>
   </si>
   <si>
-    <t>['jiwa', 'longsor', 'kencang', 'waspada', 'hujan', 'angin', 'cuaca_ekstrem', 'terendam_banjir', 'banjir', 'meluap', 'lebat', 'titik', 'alam', 'angin_kencang', 'hujan_lebat']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kejadian bencana alam akibat cuaca ekstrem terjadi di Sukabumi. Mulai dari_x000D_
@@ -9681,9 +9252,6 @@
   </si>
   <si>
     <t>akibat, wilayah, bali, pantauan, hujan, warga, lokasi, genangan, banjir</t>
-  </si>
-  <si>
-    <t>['bpbd', 'hujan', 'ketinggian', 'mengungsi', 'banjir_rob', 'pembangunan', 'banjir', 'rob', 'sungai', 'membantu', 'terdampak_banjir', 'menyebut', 'genangan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -9744,9 +9312,6 @@
     <t>Gempa Darat M 2 Goyang Wonogiri</t>
   </si>
   <si>
-    <t>['gempa_bumi', 'jawa', 'gempa', 'pusat_gempa', 'magnitudo']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi magnitudo (M) 2 terjadi di Kabupaten Wonogiri, Jawa Tengah. Pusat_x000D_
@@ -9778,9 +9343,6 @@
   </si>
   <si>
     <t>korban, bencana, akibat, kerusakan, tim, wilayah, menimbulkan, kecamatan, jalan, hujan, warga, tertimpa, diterjang, kencang, angin</t>
-  </si>
-  <si>
-    <t>['kencang', 'luka', 'waspada', 'hujan', 'angin', 'cuaca', 'tumbang', 'pohon_tumbang', 'angin_kencang', 'pohon']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -9833,9 +9395,6 @@
     <t>korban, akibat, gempa, kerusakan, wilayah, bali, tsunami</t>
   </si>
   <si>
-    <t>['kedalaman', 'kali', 'gempa', 'magnitudo', 'tsunami']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa kembali terjadi di Sumur, Banten. Kekuatan gempa kali ini magnitudo (M)_x000D_
@@ -9874,9 +9433,6 @@
     <t>tim, wilayah, keterangan, lokasi, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'polisi', 'kios', 'kebakaran', 'pasar', 'penanganan', 'pemerintah', 'unit']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polisi masih menyelidiki kebakaran pasar Ciawi Kabupaten Tasikmalaya. Polisi_x000D_
@@ -9931,9 +9487,6 @@
   </si>
   <si>
     <t>akibat, bali, hujan, warga, banjir, menerjang, terseret, hutan, longsor, terbawa, longsoran, bandang</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'longsor', 'kemarin', 'hujan', 'jawa', 'banjir', 'banjir_bandang', 'menyebut']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -10003,9 +9556,6 @@
   </si>
   <si>
     <t>bencana, tanah, curah, tim, wilayah, menimbulkan, masyarakat, keterangan, hujan, genangan, banjir, menerjang, penumpukan, lebat, longsor, kencang, meteor, tropis, angin</t>
-  </si>
-  <si>
-    <t>['makassar', 'berpotensi', 'longsor', 'kencang', 'tanggal', 'waspada', 'hujan', 'angin', 'laut', 'ketinggian', 'cuaca_ekstrem', 'cuaca', 'banjir', 'tumbang', 'pohon_tumbang', 'potensi', 'lebat', 'sulsel', 'angin_kencang', 'bmkg', 'hujan_lebat', 'genangan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -10100,9 +9650,6 @@
     <t>wilayah, masyarakat, jalan, hujan, warga, banjir, diterjang, kencang, angin</t>
   </si>
   <si>
-    <t>['kencang', 'hujan', 'angin', 'jawa', 'cuaca_ekstrem', 'banjir_rob', 'cuaca', 'banjir', 'rob', 'kapal', 'gelombang', 'terdampak_banjir', 'bmkg', 'terdampak']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuaca ekstrem melanda wilayah Kecamatan Masalembu, Kabupaten Sumenep, Jawa_x000D_
 Timur._x000D_
 _x000D_
@@ -10149,9 +9696,6 @@
   </si>
   <si>
     <t>korban, akibat, tim, bali, mobil, lokasi, kebakaran</t>
-  </si>
-  <si>
-    <t>['kebakaran', 'damkar', 'mobil']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -10192,9 +9736,6 @@
     <t>korban, kelurahan, akibat, curah, tim, wilayah, jalan, hujan, warga, banjir</t>
   </si>
   <si>
-    <t>['jiwa', 'api', 'bpbd', 'hujan', 'jawa', 'upaya', 'banjir', 'kereta', 'pantai', 'semarang', 'titik', 'terdampak', 'terdampak_banjir', 'unit', 'pengungsi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Wilayah Pantai Utara Jawa (Pantura) di Jawa Tengah dilanda banjir pada_x000D_
 malam pergantian Tahun Baru 2023, Sabtu (31/12/2022)._x000D_
 _x000D_
@@ -10312,9 +9853,6 @@
     <t>akibat, wilayah, masyarakat, jalan, hujan, warga, lokasi, badai, rawan, banjir, meluas, bahaya, lebat, longsor, angin, klimatologi</t>
   </si>
   <si>
-    <t>['longsor', 'bpbd', 'hujan', 'angin', 'jawa', 'banjir', 'tumbang', 'pohon_tumbang', 'lebat', 'hujan_lebat']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Peneliti klimatologi BRIN, Erna Yulihastin mengungkapkan adanya potensi hujan_x000D_
@@ -10375,9 +9913,6 @@
   </si>
   <si>
     <t>jalan, warga, lokasi, bahaya, kebakaran</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'kemarin', 'kebakaran', 'damkar', 'alam']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -10431,9 +9966,6 @@
     <t>korban, warga, banjir, meluap, terbawa, meluapnya, luap, pergerakan, bergerak</t>
   </si>
   <si>
-    <t>['jiwa', 'terendam_banjir', 'banjir', 'meluap', 'sulsel', 'terdampak']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Warga korban banjir di Kelurahan Wette'e, Kabupaten Sidrap, Sulawesi Selatan_x000D_
@@ -10486,9 +10018,6 @@
   </si>
   <si>
     <t>bencana, akibat, wilayah, jalan, keterangan, warga, lokasi, waktu, banjir, meluap, menerjang, rusaknya, longsor, luap, bandang, bergerak</t>
-  </si>
-  <si>
-    <t>['longsor', 'luka', 'banjir', 'meluap', 'banjir_bandang']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -10547,9 +10076,6 @@
     <t>korban, akibat, tim, bantuan, keterangan, warga, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'api', 'kebakaran', 'bangunan', 'membantu', 'atap', 'unit', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Bangunan bungalow di Desa Pelangan, Kecamatan Sekotong, Lombok Barat, Nusa_x000D_
 Tenggara Barat (NTB), terbakar, Minggu (25/12/2022). Kerugian akibat kebakaran_x000D_
 itu diperkirakan mencapai Rp 500 juta._x000D_
@@ -10598,9 +10124,6 @@
   </si>
   <si>
     <t>korban, bencana, gempa, tanah, posko, wilayah, bali, keterangan, lokasi, bumi, longsor, longsoran</t>
-  </si>
-  <si>
-    <t>['cianjur', 'luka', 'kemarin', 'gempa_bumi', 'mengungsi', 'bandung', 'potensi', 'gempa', 'tanah', 'unit']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -10656,9 +10179,6 @@
     <t>akibat, peristiwa, wilayah, bali, jalan, hujan, warga, banjir, tropis, gunung, bergerak, subtropis</t>
   </si>
   <si>
-    <t>['hujan', 'cuaca', 'banjir', 'peristiwa', 'sungai', 'lingkungan', 'pohon']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Musim dingin aneh melanda wilayah Eropa selama Tahun Baru 2022/2023. Pasalnya,_x000D_
@@ -10750,9 +10270,6 @@
     <t>korban, bencana, peristiwa, bali, bantuan, warga, lokasi, banjir</t>
   </si>
   <si>
-    <t>['tanggal', 'polisi', 'banjir', 'peristiwa', 'alam', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Wakil Ketua DPRD Kabupaten Kupang Yonahes Mase tak menyangka bantuan biskuit_x000D_
@@ -10806,9 +10323,6 @@
     <t>bali, hujan, warga, banjir, menerjang, petir</t>
   </si>
   <si>
-    <t>['sekolah', 'petir', 'hujan', 'laut', 'jawa', 'banjir_rob', 'dibangun', 'banjir', 'kali', 'semarang', 'rob']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Banjir rob kembali menerjang Kampung Nelayan Tambak Lorok, Tanjung Emas,_x000D_
 Kota Semarang, Jawa Tengah (Jateng)._x000D_
 _x000D_
@@ -10856,9 +10370,6 @@
     <t>curah, tim, kecamatan, jalan, langi, kendaraan, hujan, warga, lokasi, genangan, banjir, lebat, angin</t>
   </si>
   <si>
-    <t>['kemarin', 'hujan', 'ketinggian', 'mengungsi', 'terendam_banjir', 'banjir', 'lebat', 'kendaraan', 'atap', 'terdampak_banjir', 'hujan_lebat', 'bantuan', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Genangan banjir di Desa Jati Wetan, Kudus, Jawa Tengah, terus naik. Siang ini_x000D_
@@ -10913,9 +10424,6 @@
   </si>
   <si>
     <t>peristiwa, tim, bali, mengerahkan, keterangan, warga, bahaya, kebakaran</t>
-  </si>
-  <si>
-    <t>['jakarta', 'kebakaran', 'peristiwa', 'kali', 'damkar', 'sungai', 'unit']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -10971,9 +10479,6 @@
     <t>penanggulangan, bencana, wilayah, menimbulkan, genangan, banjir, kencang, angin</t>
   </si>
   <si>
-    <t>['kencang', 'tanggal', 'angin', 'banjir', 'tumbang', 'pohon_tumbang', 'angin_kencang', 'menyebut', 'genangan', 'makassar', 'cuaca', 'potensi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Wali Kota Makassar Moh Ramdhan 'Danny' Pomanto mengungkap potensi cuaca buruk_x000D_
@@ -11019,9 +10524,6 @@
     <t>gempa, kerusakan, tim, wilayah, bali, getaran, susulan, bumi, pemodelan, tsunami</t>
   </si>
   <si>
-    <t>['kedalaman', 'gempa_bumi', 'laut', 'gempa', 'getaran', 'magnitudo', 'gelombang', 'bmkg', 'tsunami']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gempa bumi kembali terjadi di Karangasem, Bali. Terbaru, gempa terjadi dengan_x000D_
@@ -11065,9 +10567,6 @@
   </si>
   <si>
     <t>korban, tim, wilayah, kecamatan, bali, jalan, hujan, warga, banjir, meluap, terseret, luap, bandang</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'hujan', 'jawa', 'banjir', 'meluap', 'banjir_bandang', 'titik', 'terdampak_banjir']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Ratna Sugiarti (32) yang hamil delapan bulan tewas tenggelam usai terseret_x000D_
@@ -11166,9 +10665,6 @@
     <t>acara, masyarakat, jalan, hujan, berembus, kencang, angin</t>
   </si>
   <si>
-    <t>['pesisir', 'kencang', 'api', 'angin', 'laut', 'pasar', 'lantai', 'kali', 'pantai', 'titik', 'kapal']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Daftar Isi_x000D_
 _x000D_
    9 Tempat Ngumpul di Surabaya untuk Malam Tahun Baru: _x000D_
@@ -11304,9 +10800,6 @@
   </si>
   <si>
     <t>gempa, tim, kabupaten, getaran, susulan</t>
-  </si>
-  <si>
-    <t>['tanggal', 'gempa_bumi', 'gempa', 'gempa_susulan', 'getaran', 'bpbd', 'kali']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -11420,9 +10913,6 @@
     <t>korban, peristiwa, lokasi, waktu, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'kios', 'kebakaran', 'pasar']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 40 kios di Pasar Mengwi yang berlokasi di Jalan Ngurah Rai, Mengwi, Kabupaten_x000D_
@@ -11459,9 +10949,6 @@
     <t>korban, akibat, peristiwa, jalan, badan, keterangan, waktu, angin</t>
   </si>
   <si>
-    <t>['jiwa', 'bpbd', 'angin', 'mengungsi', 'peristiwa', 'atap', 'unit']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sebanyak 17 unit rumah dan toko rusak parah akibat angin puting beliung di_x000D_
 Desa Meucat dan Desa Dayah Teuku, Kecamatan Syamtalira Aron, Kabupaten Aceh_x000D_
 Utara, Provinsi Aceh, Jumat (9/12/2022)._x000D_
@@ -11498,9 +10985,6 @@
     <t>bencana, curah, mengguyur, wilayah, masyarakat, jalan, mengerahkan, keterangan, hujan, genangan, banjir, bumi, kencang, angin</t>
   </si>
   <si>
-    <t>['jakarta', 'kencang', 'bpbd', 'hujan', 'bpbd_dki', 'angin', 'terendam_banjir', 'banjir', 'dki_jakarta', 'potensi', 'titik', 'damkar', 'genangan', 'surut', 'ketinggian']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Hujan deras disertai angin kencang mengguyur sejumlah wilayah DKI Jakarta_x000D_
@@ -11557,9 +11041,6 @@
   </si>
   <si>
     <t>korban, mengguyur, wilayah, jalan, hujan, banjir, lebat</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'hujan', 'kegiatan', 'bandung', 'banjir', 'kali', 'lebat', 'sungai', 'terdampak', 'sampah', 'lingkungan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -11678,9 +11159,6 @@
     <t>kelurahan, wilayah, masyarakat, kecamatan, jalan, warga, banjir, terkepung</t>
   </si>
   <si>
-    <t>['makassar', 'banjir', 'kali', 'terdampak', 'terdampak_banjir', 'unit']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Wali Kota Makassar Moh Ramdhan 'Danny' Pomanto mengatakan banjir yang terjadi_x000D_
@@ -11722,9 +11200,6 @@
     <t>korban, akibat, wilayah, jalan, bantuan, warga, lokasi, waktu, banjir</t>
   </si>
   <si>
-    <t>['kemarin', 'terendam_banjir', 'banjir', 'membantu', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Menteri Sosial Tri Rismaharini atau Risma meninjau korban banjir di Desa_x000D_
@@ -11776,9 +11251,6 @@
     <t>tim, wilayah, masyarakat, jalan, kendaraan, hujan, warga, banjir, menerjang</t>
   </si>
   <si>
-    <t>['bpbd', 'hujan', 'terendam_banjir', 'banjir', 'titik', 'kendaraan', 'terdampak_banjir', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Hujan deras selama 2 jam sejak pukul 15.30 WIB membuat seluruh kawasan_x000D_
@@ -11825,9 +11297,6 @@
     <t>korban, bencana, akibat, menimbulkan, kecamatan, bantuan, warga, rawan, banjir, diterjang, longsor, kencang, angin</t>
   </si>
   <si>
-    <t>['jiwa', 'longsor', 'kencang', 'waspada', 'angin', 'cuaca_ekstrem', 'banjir', 'peristiwa', 'sulsel', 'angin_kencang', 'terdampak']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 35 rumah di Kabupaten Sidrap, Sulawesi Selatan (Sulsel) rusak diterjang angin_x000D_
@@ -11878,9 +11347,6 @@
   </si>
   <si>
     <t>peristiwa, tim, pantauan, hujan, lokasi, waktu, luapan, genangan, banjir, meluap, menggenangi, ombak, luap</t>
-  </si>
-  <si>
-    <t>['kemarin', 'hujan', 'banjir_rob', 'terendam_banjir', 'pembangunan', 'cuaca', 'banjir', 'peristiwa', 'meluap', 'kali', 'genangan', 'kios', 'lebat']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -11943,9 +11409,6 @@
     <t>korban, bencana, akibat, gempa, posko, jalan, bantuan, keterangan, lokasi, bumi</t>
   </si>
   <si>
-    <t>['ditemukan', 'cianjur', 'kemarin', 'gempa_bumi', 'jawa', 'gempa', 'membantu', 'alam', 'pengungsi', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Menteri Perhubungan Budi Karya Sumadi meninjau lokasi terdampak gempa bumi di_x000D_
@@ -12002,9 +11465,6 @@
     <t>korban, wilayah, masyarakat, bali, bantuan, hujan, warga, banjir, meluap, menerjang, menggenangi, luap</t>
   </si>
   <si>
-    <t>['hujan', 'banjir', 'meluap', 'sungai', 'terdampak_banjir', 'lingkungan', 'surut', 'bantuan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir yang menerjang tiga lingkungan di Kelurahan Kandai 2, Kecamatan Woja,_x000D_
@@ -12059,9 +11519,6 @@
     <t>bencana, bali, jalan, pekerjaan, lokasi, mencegah, banjir, kemacetan</t>
   </si>
   <si>
-    <t>['jakarta', 'kemarin', 'bpbd_dki', 'cuaca_ekstrem', 'banjir', 'pemerintah', 'dki_jakarta', 'terdampak']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Publik mendesak Pemerintah Provinsi (Pemprov) DKI Jakarta menerapkan kerja_x000D_
@@ -12144,9 +11601,6 @@
     <t>kelurahan, mengguyur, tim, wilayah, lokasi, tersendat, genangan, banjir</t>
   </si>
   <si>
-    <t>['hujan', 'ketinggian', 'banjir', 'semarang', 'titik', 'terdampak', 'genangan', 'surut', 'polisi']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Banjir melanda Kota Semarang, termasuk di daerah Mangkang dan Ngaliyan, yang_x000D_
@@ -12192,9 +11646,6 @@
     <t>korban, keterangan, mobil, warga, kebakaran, terbakar, angin</t>
   </si>
   <si>
-    <t>['jakarta', 'terbakar', 'luka', 'angin', 'kebakaran']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kebakaran melanda lapak di Kedoya Selatan, Kebon Jeruk, Jakarta Barat. Diduga_x000D_
@@ -12229,9 +11680,6 @@
     <t>wilayah, jalan, waktu, genangan, banjir, menggenangi</t>
   </si>
   <si>
-    <t>['jakarta', 'api', 'jawa', 'arah', 'pasar', 'banjir', 'kereta', 'semarang', 'menyebut', 'genangan']</t>
-  </si>
-  <si>
     <t xml:space="preserve">  _x000D_
   _x000D_
 \- Imbas banjir yang menggenangi hampir semua wilayah di kota Semarang, Jawa_x000D_
@@ -12281,9 +11729,6 @@
     <t>akibat, peristiwa, kerusakan, tanah, curah, wilayah, bali, jalan, hujan, warga, rawan, longsor</t>
   </si>
   <si>
-    <t>['longsor', 'bpbd', 'kemarin', 'hujan', 'ketinggian', 'peristiwa', 'tanah']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Longsor terjadi di Jalan Poros Kecamatan Kedewan-Malo, Bojonegoro. Material_x000D_
@@ -12333,9 +11778,6 @@
     <t>warga, lokasi, meluas, kebakaran</t>
   </si>
   <si>
-    <t>['api', 'kebakaran', 'pasar']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Kebakaran hebat melanda Pasar Kesamben, Blitar. Sebelum datangnya petugas PMK,_x000D_
@@ -12379,9 +11821,6 @@
   </si>
   <si>
     <t>korban, bencana, gempa, peristiwa, acara, masyarakat, jalan, bantuan, kemanusiaan, kendaraan, warga, pekerjaan, lokasi, waktu, bumi</t>
-  </si>
-  <si>
-    <t>['cianjur', 'gempa_bumi', 'kegiatan', 'peristiwa', 'kali', 'gempa', 'titik', 'kendaraan', 'bantuan']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -12470,9 +11909,6 @@
     <t>tim, masyarakat, kendaraan, warga, lokasi, meluas, kebakaran, terbakar</t>
   </si>
   <si>
-    <t>['terbakar', 'bpbd', 'kebakaran', 'pasar', 'kali', 'titik', 'membantu']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Pasar Kesamben Blitar terbakar hebat. Sejumlah unit kendaraan pemadam termasuk_x000D_
@@ -12518,9 +11954,6 @@
   </si>
   <si>
     <t>akibat, curah, tim, wilayah, masyarakat, jalan, bantuan, hujan, warga, luapan, genangan, banjir, lebat, luap</t>
-  </si>
-  <si>
-    <t>['jakarta', 'bpbd', 'waspada', 'hujan', 'bpbd_dki', 'banjir', 'dki_jakarta', 'kali', 'lebat', 'titik', 'terdampak', 'lingkungan', 'bantuan', 'genangan']</t>
   </si>
   <si>
     <t xml:space="preserve">\- Badan Penanggulangan Bencana (BPBD) DKI Jakarta mencatat terdapat 19_x000D_
@@ -12593,9 +12026,6 @@
     <t>akibat, menimbulkan, bali, abrasi, ombak</t>
   </si>
   <si>
-    <t>['laut', 'kali', 'pantai', 'waspada']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Pantai Batukaras mengalami abrasi dari pasang air laut yang ekstrim. Sehingga_x000D_
@@ -12656,9 +12086,6 @@
     <t>korban, akibat, menimbulkan, kecamatan, kabupaten, bantuan, keterangan, hujan, banjir, kilat, lebat, petir, kencang, angin</t>
   </si>
   <si>
-    <t>['makassar', 'petir', 'jiwa', 'kencang', 'tanggal', 'luka', 'bpbd', 'waspada', 'hujan', 'angin', 'ketinggian', 'cuaca_ekstrem', 'cuaca', 'banjir', 'tumbang', 'pohon_tumbang', 'lebat', 'sulsel', 'sungai', 'angin_kencang', 'terdampak', 'terdampak_banjir']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Sejumlah daerah di Sulsel diguyur hujan hari ini. Pintu air di Waduk Nipa-_x000D_
@@ -12739,9 +12166,6 @@
   </si>
   <si>
     <t>korban, bencana, akibat, peristiwa, kerusakan, mengguyur, tim, hujan, lokasi, dihantam, tertimbun, diterjang, lebat, longsor</t>
-  </si>
-  <si>
-    <t>['ditemukan', 'longsor', 'bpbd', 'hujan', 'cuaca', 'lebat', 'hujan_lebat', 'unit']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -12797,9 +12221,6 @@
   </si>
   <si>
     <t>waktu, kencang, angin</t>
-  </si>
-  <si>
-    <t>['kencang', 'angin', 'alam', 'angin_kencang']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -12864,9 +12285,6 @@
     <t>tim, wilayah, jalan, bantuan, mobil, kebakaran, kemacetan</t>
   </si>
   <si>
-    <t>['kemarin', 'waspada', 'kebakaran', 'titik', 'bantuan', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Polres Klaten mendapatkan bantuan 1 satuan setingkat peleton (SST) Brimob dan_x000D_
@@ -12925,9 +12343,6 @@
   </si>
   <si>
     <t>pelaku, jalan, waktu, banjir</t>
-  </si>
-  <si>
-    <t>['pelaku', 'banjir', 'kali']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -12981,9 +12396,6 @@
     <t>kendaraan, mobil, warga, lokasi, kebakaran</t>
   </si>
   <si>
-    <t>['jakarta', 'kebakaran', 'penanganan', 'dki_jakarta', 'kendaraan', 'unit', 'damkar', 'mobil']</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terjadi kebakaran di permukiman kawasan Jalan Bangka Buntu I, Kelurahan_x000D_
 Bangka, Mampang, Jakarta Selatan pada Senin (26/12/2022) malam sekitar pukul_x000D_
 21.00 WIB._x000D_
@@ -13013,9 +12425,6 @@
     <t>korban, bencana, akibat, labil, tanah, poros, wilayah, jalan, badan, struktur, hujan, warga, lokasi, ditambah, mengutarakan, banjir, meluap, menerjang, longsor, luap, bandang, bergerak</t>
   </si>
   <si>
-    <t>['longsor', 'luka', 'bpbd', 'hujan', 'upaya', 'banjir', 'meluap', 'banjir_bandang', 'alam']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Longsor dan banjir bandang menerjang Kecamatan Mappak, Kabupaten Tana Toraja,_x000D_
@@ -13070,9 +12479,6 @@
   </si>
   <si>
     <t>bencana, tanah, bali, hujan, banjir, lebat, longsor, kencang, angin</t>
-  </si>
-  <si>
-    <t>['pesisir', 'berpotensi', 'longsor', 'kencang', 'kemarin', 'waspada', 'hujan', 'angin', 'banjir', 'lebat', 'sungai', 'angin_kencang', 'gelombang', 'hujan_lebat']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -13118,9 +12524,6 @@
     <t>akibat, gempa, peristiwa, masyarakat, bali, langi, letusan, banjir, berapi, bumi, seismik, meteor, astronomis, gunung, tsunami, vulkanologi</t>
   </si>
   <si>
-    <t>['gempa_bumi', 'banjir_rob', 'banjir', 'peristiwa', 'kali', 'gempa', 'fenomena', 'tsunami']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Fenomena solstic akan terjadi besok 21 Desember 2022. Apakah fenomena solstis_x000D_
@@ -13172,9 +12575,6 @@
     <t>akibat, gempa, kerusakan, tim, bali, terletak, keterangan, warga, lokasi, getaran, susulan, bumi, bahaya, pemodelan, tsunami</t>
   </si>
   <si>
-    <t>['kedalaman', 'gempa_bumi', 'arah', 'bangunan', 'gempa', 'gempa_susulan', 'titik', 'pusat_gempa', 'getaran', 'bmkg', 'tsunami', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\- Gempa magnitudo 5,1 terjadi di arah timur laut Kubu, Karangasem, Bali,_x000D_
 Selasa (13/12/2022) pukul 18.38 Wita._x000D_
 _x000D_
@@ -13220,9 +12620,6 @@
   </si>
   <si>
     <t>bencana, gempa, wilayah, masyarakat, warga, lokasi, hutan</t>
-  </si>
-  <si>
-    <t>['kegiatan', 'bandung', 'kali', 'gempa', 'alam']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -13314,9 +12711,6 @@
     <t>penanggulangan, bencana, akibat, tim, wilayah, masyarakat, jalan, terletak, bantuan, badan, warga, banjir, tertimpa, terjangan, bahaya, terseret, ombak, longsor, kencang, tanggul, angin, bergerak</t>
   </si>
   <si>
-    <t>['longsor', 'kencang', 'bpbd', 'waspada', 'angin', 'laut', 'mengungsi', 'banjir', 'pemerintah', 'membantu', 'gelombang']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gelombang pasang air laut merusak 13 rumah warga di wilayah Desa Tampalang,_x000D_
@@ -13371,9 +12765,6 @@
   </si>
   <si>
     <t>korban, bencana, gempa, runtuh, tim, bantuan, kemanusiaan, keterangan, warga, lokasi, bumi, bergerak</t>
-  </si>
-  <si>
-    <t>['cianjur', 'gempa_bumi', 'kegiatan', 'bandung', 'gempa', 'titik', 'tanah', 'bantuan']</t>
   </si>
   <si>
     <t xml:space="preserve"> Hidup mengabdi sebagai relawan kegiatan kemanusiaan merupakan hal yang_x000D_
@@ -13467,9 +12858,6 @@
   </si>
   <si>
     <t>korban, tim, wilayah, masyarakat, bantuan, hujan, warga, genangan, banjir, ombak, kencang, angin</t>
-  </si>
-  <si>
-    <t>['pesisir', 'kencang', 'tanggal', 'bpbd', 'kemarin', 'hujan', 'angin', 'laut', 'jawa', 'terendam_banjir', 'banjir', 'rob', 'pemerintah', 'potensi', 'titik', 'angin_kencang', 'bmkg', 'bantuan', 'genangan', 'surut', 'waspada', 'cuaca']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -13521,9 +12909,6 @@
   </si>
   <si>
     <t>korban, gempa, tim, posko, wilayah, masyarakat, jalan, bantuan, kendaraan, mengerahkan, keterangan, mobil, lokasi, bumi</t>
-  </si>
-  <si>
-    <t>['cianjur', 'luka', 'jawa', 'gempa', 'menyebut', 'unit', 'mobil', 'bantuan', 'pengungsi']</t>
   </si>
   <si>
     <t xml:space="preserve">\-_x000D_
@@ -13588,9 +12973,6 @@
     <t>tanah, banjir, hutan</t>
   </si>
   <si>
-    <t>['lahan', 'pembangunan', 'banjir', 'sungai', 'menyebut']</t>
-  </si>
-  <si>
     <t xml:space="preserve">\-_x000D_
 _x000D_
 Gubernur Sumatera Utara (Gubsu) Edy Rahmayadi mengaku pernah berhasil_x000D_
@@ -13631,12 +13013,627 @@
 _x000D_
  </t>
   </si>
+  <si>
+    <t>['berpotensi', 'hujan', 'kencang', 'semarang', 'cuaca', 'waspada', 'angin', 'hujan_lebat', 'jawa', 'lebat', 'petir']</t>
+  </si>
+  <si>
+    <t>['banjir', 'hujan', 'bangunan', 'ketinggian', 'dinas', 'surut', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'genangan', 'upaya', 'hujan', 'jakarta', 'semarang', 'membantu', 'terdampak', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'tsunami', 'bpbd', 'gempa_susulan', 'jiwa', 'kedalaman', 'dapur', 'pusat_gempa', 'jawa', 'kali', 'bmkg', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'mobil', 'pembangunan', 'ditemukan', 'bangunan', 'pantai', 'tanah', 'sampah', 'sungai', 'dinas', 'jawa', 'pasar', 'dibangun', 'pemerintah', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['kebakaran', 'peristiwa', 'kapal', 'terbakar']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'gempa_bumi', 'jiwa', 'kedalaman', 'pusat_gempa', 'bmkg', 'getaran']</t>
+  </si>
+  <si>
+    <t>['upaya', 'longsor', 'hujan', 'pohon', 'tanah', 'sampah', 'waspada', 'laut', 'cuaca_ekstrem', 'pemerintah', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'hujan', 'kali', 'sungai', 'membantu', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['pembangunan', 'peristiwa', 'kendaraan', 'hujan', 'tanah', 'pasar', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['program', 'jokowi', 'jakarta', 'kegiatan', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'banjir', 'bpbd', 'pantai', 'pemerintah', 'kencang', 'sampah', 'laut', 'angin_kencang', 'surut', 'terdampak_banjir', 'angin', 'terdampak', 'cuaca_ekstrem', 'tim']</t>
+  </si>
+  <si>
+    <t>['banjir', 'berpotensi', 'gelombang', 'longsor', 'hujan', 'kencang', 'jakarta', 'waspada', 'angin_kencang', 'angin', 'bmkg', 'hujan_lebat', 'banjir_bandang', 'lebat', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['api', 'bangunan', 'jakarta', 'terbakar', 'dinas', 'kebakaran']</t>
+  </si>
+  <si>
+    <t>['program', 'banjir', 'pembangunan', 'bpbd', 'hujan', 'pohon', 'tumbang', 'jawa', 'cuaca', 'laut', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'banjir', 'gempa_bumi', 'tsunami', 'banjir_rob', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'mobil', 'unit', 'hujan', 'kali', 'sungai', 'lebat']</t>
+  </si>
+  <si>
+    <t>['gempa', 'bantuan', 'cianjur', 'miliar', 'pengungsi', 'membantu', 'terdampak', 'pemerintah', 'alam']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'jawa', 'kali', 'terdampak', 'getaran']</t>
+  </si>
+  <si>
+    <t>['kebakaran', 'mobil', 'polisi']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'berpotensi', 'tsunami', 'bpbd', 'gempa_susulan', 'bangunan', 'kedalaman', 'pusat_gempa', 'jawa', 'waspada', 'laut', 'bmkg', 'getaran']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'gelombang', 'unit', 'hujan', 'kencang', 'kali', 'jawa', 'cuaca', 'angin_kencang', 'angin', 'bmkg', 'kapal', 'lingkungan', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['banjir', 'mobil', 'tenda', 'genangan', 'upaya', 'miliar', 'ketinggian', 'sungai', 'cuaca', 'surut']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'banjir', 'kendaraan', 'genangan', 'arah', 'semarang', 'cuaca', 'jawa', 'surut', 'jalur']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'peristiwa', 'makassar', 'pohon', 'luka', 'tumbang', 'sungai', 'kebakaran', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'makassar', 'hujan', 'pohon', 'kencang', 'luka', 'tumbang', 'angin_kencang', 'angin', 'atap', 'damkar']</t>
+  </si>
+  <si>
+    <t>['banjir', 'bpbd_dki', 'bpbd', 'ketinggian', 'jakarta', 'heru', 'pesisir', 'laut', 'pemprov_dki', 'waspada', 'banjir_rob', 'cuaca_ekstrem', 'pompa', 'rob']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'ditemukan', 'upaya', 'longsor', 'gempa_susulan', 'jiwa', 'gempa_cianjur', 'luka', 'kali', 'jawa', 'dinas', 'bmkg', 'terdampak', 'pemerintah', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'gempa', 'program', 'gempa_bumi', 'upaya', 'bangunan', 'gempa_cianjur', 'tanah', 'jawa', 'dinas', 'terdampak', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['kebakaran', 'kendaraan', 'ketinggian', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['banjir', 'peristiwa', 'bpbd', 'longsor', 'hujan', 'kali', 'cuaca', 'laut', 'angin', 'waspada', 'banjir_bandang', 'pemerintah', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'makanan', 'ganjar', 'pengungsi', 'semarang', 'cuaca', 'sungai', 'dinas', 'jawa', 'cuaca_ekstrem', 'pompa']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'peristiwa', 'hujan', 'pohon', 'kencang', 'jakarta', 'tumbang', 'dinas', 'angin', 'kebakaran']</t>
+  </si>
+  <si>
+    <t>['banjir', 'hujan', 'bangunan', 'jakarta', 'jawa', 'cuaca', 'laut', 'angin', 'bmkg', 'waspada', 'pemprov_dki', 'lebat', 'hujan_lebat', 'banjir_rob', 'rob', 'potensi']</t>
+  </si>
+  <si>
+    <t>['banjir', 'genangan', 'hujan', 'jawa', 'waspada', 'laut', 'angin', 'bmkg', 'hujan_lebat', 'lebat']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'bangunan', 'laut', 'bmkg', 'getaran']</t>
+  </si>
+  <si>
+    <t>['mobil', 'unit', 'api', 'jakarta', 'terbakar', 'kebakaran', 'damkar']</t>
+  </si>
+  <si>
+    <t>['titik', 'kegiatan', 'kebakaran']</t>
+  </si>
+  <si>
+    <t>['titik', 'pohon_tumbang', 'peristiwa', 'gelombang', 'bpbd', 'longsor', 'jiwa', 'hujan', 'kencang', 'pohon', 'kali', 'tumbang', 'angin_kencang', 'angin', 'terdampak', 'potensi', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pantai', 'sampah', 'laut', 'tim', 'angin', 'cuaca_ekstrem', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['hujan', 'kencang', 'cuaca', 'waspada', 'angin', 'bmkg', 'lebat', 'petir']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'mengungsi', 'gempa_bumi', 'ditemukan', 'longsor', 'bangunan', 'kali', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'peristiwa', 'tenda', 'makanan', 'hujan', 'kencang', 'jakarta', 'tanah', 'angin_kencang', 'angin', 'atap', 'membantu', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'gelombang', 'hujan', 'ketinggian', 'pantai', 'kencang', 'tanah', 'kali', 'semarang', 'angin_kencang', 'surut', 'angin', 'rob', 'pompa']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'mengungsi', 'polisi', 'jiwa', 'api', 'bangunan', 'terbakar', 'kebakaran', 'pelaku']</t>
+  </si>
+  <si>
+    <t>['titik', 'bpbd', 'unit', 'makassar', 'ditemukan', 'longsor', 'jiwa', 'bangunan', 'sungai']</t>
+  </si>
+  <si>
+    <t>['banjir', 'berpotensi', 'longsor', 'hujan', 'kencang', 'semarang', 'cuaca', 'angin_kencang', 'angin', 'waspada', 'hujan_lebat', 'jawa', 'lebat', 'petir']</t>
+  </si>
+  <si>
+    <t>['pembangunan', 'polisi', 'bpbd', 'api', 'bangunan', 'terbakar', 'jawa', 'kebakaran', 'dinas', 'pedagang', 'pasar', 'damkar']</t>
+  </si>
+  <si>
+    <t>['titik', 'pohon_tumbang', 'berpotensi', 'kendaraan', 'longsor', 'luka', 'tumbang', 'alam', 'jalur']</t>
+  </si>
+  <si>
+    <t>['titik', 'polisi', 'kedalaman', 'luka', 'kali', 'pelaku', 'bangunan', 'gempa_cianjur', 'pusat_gempa', 'laut', 'bmkg', 'gempa', 'magnitudo', 'peristiwa', 'pemerintah', 'gempa_bumi', 'bandung', 'unit', 'jawa']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'unit', 'jiwa', 'jakarta', 'dapur', 'heru', 'pemprov_dki', 'kebakaran', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['banjir', 'longsor', 'hujan', 'proyek', 'kedalaman', 'cuaca', 'dibangun']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'polisi', 'bpbd_dki', 'kendaraan', 'genangan', 'hujan', 'ketinggian', 'jakarta']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'genangan', 'hujan', 'tumbang', 'membantu']</t>
+  </si>
+  <si>
+    <t>['titik', 'terendam_banjir', 'mengungsi', 'banjir', 'makassar', 'pengungsi', 'kali', 'terdampak_banjir', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'magnitudo', 'gempa_bumi', 'bpbd', 'gempa_susulan', 'bangunan', 'kedalaman', 'arah', 'pusat_gempa', 'kali', 'laut', 'getaran']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'peristiwa', 'bangunan', 'pohon', 'proyek', 'kencang', 'angin_kencang', 'angin', 'atap']</t>
+  </si>
+  <si>
+    <t>['api', 'pantai', 'jalur']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'kedalaman', 'kali', 'bmkg']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'hujan', 'arah', 'waspada', 'relawan', 'lebat', 'terdampak', 'kebakaran', 'bpbd', 'pohon', 'kencang', 'jakarta', 'cuaca', 'hujan_lebat', 'berpotensi', 'tumbang', 'jawa', 'dinas', 'angin', 'cuaca_ekstrem', 'potensi']</t>
+  </si>
+  <si>
+    <t>['cuaca_ekstrem', 'banjir', 'gelombang', 'arah', 'kali', 'jawa', 'cuaca', 'laut', 'pesisir', 'bmkg', 'terdampak_banjir', 'angin', 'kapal', 'waspada', 'banjir_rob', 'terdampak', 'rob']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'gelombang', 'kencang', 'cuaca', 'angin_kencang', 'angin', 'kapal', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'mengungsi', 'tenda', 'makanan', 'unit', 'upaya', 'jiwa', 'api', 'miliar', 'jakarta', 'pengungsi', 'terbakar', 'pompa', 'kebakaran', 'terdampak', 'damkar']</t>
+  </si>
+  <si>
+    <t>['gempa', 'banjir', 'pembangunan', 'gempa_bumi', 'longsor', 'jokowi', 'kali', 'alam']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'kedalaman', 'pusat_gempa', 'bmkg', 'lingkungan', 'getaran']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'berpotensi', 'gelombang', 'tsunami', 'bangunan', 'kedalaman', 'jakarta', 'pusat_gempa', 'laut', 'bmkg', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'bpbd', 'hujan', 'jawa', 'relawan', 'terdampak_banjir', 'membantu', 'jalur']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pembangunan', 'genangan', 'hujan', 'bendungan', 'jokowi', 'proyek', 'tanah', 'jawa']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'kedalaman', 'pusat_gempa', 'laut', 'bmkg', 'getaran']</t>
+  </si>
+  <si>
+    <t>['banjir', 'bpbd', 'pantai', 'kencang', 'jawa', 'pesisir', 'cuaca', 'laut', 'angin_kencang', 'surut', 'angin', 'terdampak', 'damkar']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'gempa_bumi', 'magnitudo', 'jiwa', 'kedalaman', 'pusat_gempa', 'laut', 'bmkg']</t>
+  </si>
+  <si>
+    <t>['banjir', 'bpbd', 'genangan', 'hujan', 'sungai']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'berpotensi', 'tsunami', 'kedalaman', 'jakarta', 'pusat_gempa', 'jawa', 'bmkg']</t>
+  </si>
+  <si>
+    <t>['gempa', 'berpotensi', 'tsunami', 'kedalaman', 'laut', 'bmkg', 'getaran']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'kendaraan', 'peristiwa', 'tenda', 'bpbd', 'longsor', 'pemerintah', 'luka', 'dinas', 'banjir_bandang', 'terdampak', 'tim']</t>
+  </si>
+  <si>
+    <t>['banjir', 'hujan', 'ketinggian', 'semarang', 'hujan_lebat', 'lebat', 'banjir_rob', 'rob']</t>
+  </si>
+  <si>
+    <t>['relawan', 'terdampak', 'mobil', 'gempa_cianjur', 'tim', 'gempa', 'bantuan', 'magnitudo', 'peristiwa', 'makanan', 'jakarta', 'pemerintah', 'cianjur', 'mengungsi', 'gempa_bumi', 'unit', 'jawa', 'kegiatan', 'membantu']</t>
+  </si>
+  <si>
+    <t>['atap', 'berpotensi', 'hujan', 'kencang', 'angin_kencang', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'petir', 'potensi']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'hujan', 'pohon', 'kencang', 'arah', 'tumbang', 'angin_kencang', 'angin', 'tim', 'alam']</t>
+  </si>
+  <si>
+    <t>['pembangunan', 'unit', 'makassar', 'api', 'terbakar', 'sampah', 'kegiatan', 'kebakaran', 'dinas', 'pasar', 'dibangun', 'terdampak', 'pedagang']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pembangunan', 'berpotensi', 'kendaraan', 'bangunan', 'luka', 'pemerintah', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['jakarta', 'tim', 'tanah']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'banjir', 'bpbd', 'genangan', 'longsor', 'hujan', 'pohon', 'ketinggian', 'kereta', 'sampah', 'kali', 'sungai', 'tanah', 'pemerintah', 'pedagang', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['polisi', 'hujan', 'luka', 'arah', 'kali', 'pelaku', 'banjir', 'mobil', 'longsor', 'kereta', 'proyek', 'tim', 'jalur', 'peristiwa', 'jakarta', 'sungai', 'kendaraan', 'bandung', 'ditemukan', 'jiwa', 'pengungsi', 'jawa', 'banjir_bandang']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'jawa', 'bmkg']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'pembangunan', 'bantuan', 'gempa_bumi', 'cianjur', 'bangunan', 'jokowi', 'jakarta', 'kali', 'jawa', 'terdampak', 'jalur']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'mobil', 'ketinggian', 'pantai', 'semarang', 'laut', 'surut', 'pompa']</t>
+  </si>
+  <si>
+    <t>['banjir', 'peristiwa', 'bpbd', 'jiwa', 'hujan', 'pengungsi', 'banjir_bandang', 'terdampak_banjir', 'alam']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'peristiwa', 'ditemukan', 'jiwa', 'pemerintah', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['banjir', 'kendaraan', 'bandung', 'genangan', 'arah', 'pasar', 'jalur']</t>
+  </si>
+  <si>
+    <t>['program', 'terendam_banjir', 'mengungsi', 'banjir', 'bpbd', 'hujan', 'bendungan', 'kedalaman', 'kali', 'sungai', 'relawan', 'damkar']</t>
+  </si>
+  <si>
+    <t>['hujan', 'kencang', 'cuaca', 'angin_kencang', 'angin', 'kapal', 'hujan_lebat', 'lebat', 'petir']</t>
+  </si>
+  <si>
+    <t>['bpbd_dki', 'bpbd', 'hujan', 'jakarta', 'tanah', 'sungai', 'waspada', 'bmkg', 'pasar', 'potensi']</t>
+  </si>
+  <si>
+    <t>['hujan', 'api', 'arah', 'kali', 'terbakar', 'terdampak', 'sekolah', 'bpbd_dki', 'kebakaran', 'bantuan', 'peristiwa', 'makanan', 'kencang', 'jakarta', 'dapur', 'cuaca', 'angin_kencang', 'pemerintah', 'mengungsi', 'unit', 'jiwa', 'angin', 'petir']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'kendaraan', 'sekolah', 'genangan', 'hujan', 'jakarta', 'arah', 'kali', 'laut', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'upaya', 'cianjur', 'jakarta', 'relawan', 'membantu', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'bpbd', 'hujan', 'jiwa', 'sungai', 'waspada', 'jawa', 'relawan']</t>
+  </si>
+  <si>
+    <t>['banjir', 'makassar', 'hujan', 'tanah', 'dinas']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pembangunan', 'tsunami', 'genangan', 'hujan', 'miliar', 'pantai', 'proyek', 'cuaca', 'dinas']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'makassar', 'api', 'ketinggian', 'terbakar', 'jawa', 'kebakaran', 'alam']</t>
+  </si>
+  <si>
+    <t>['polisi', 'peristiwa', 'api', 'jawa', 'angin', 'kebakaran']</t>
+  </si>
+  <si>
+    <t>['titik', 'bantuan', 'banjir', 'bpbd', 'pantai', 'laut', 'surut', 'terdampak_banjir', 'banjir_rob', 'terdampak', 'rob']</t>
+  </si>
+  <si>
+    <t>['mengungsi', 'bpbd', 'longsor', 'jiwa', 'bangunan', 'hujan', 'dapur', 'tanah', 'jawa']</t>
+  </si>
+  <si>
+    <t>['unit', 'jiwa', 'hujan', 'kencang', 'waspada', 'angin_kencang', 'angin', 'bmkg', 'atap', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['banjir', 'mobil', 'unit', 'tanah', 'kali', 'jawa', 'banjir_bandang', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['banjir', 'danau', 'hujan', 'kencang', 'angin', 'bmkg', 'kapal']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'mobil', 'gempa_bumi', 'kendaraan', 'ditemukan', 'longsor', 'tim', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['banjir', 'berpotensi', 'genangan', 'hujan', 'ketinggian', 'arah', 'jawa', 'pesisir', 'cuaca', 'laut', 'bmkg', 'angin', 'waspada', 'banjir_rob', 'terdampak', 'rob']</t>
+  </si>
+  <si>
+    <t>['gempa', 'longsor', 'cianjur', 'bangunan', 'kencang', 'jakarta', 'tanah', 'alam', 'jalur']</t>
+  </si>
+  <si>
+    <t>['titik', 'pembangunan', 'kendaraan', 'longsor', 'proyek', 'tanah', 'dinas', 'dibangun', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['mengungsi', 'gelombang', 'genangan', 'kencang', 'semarang', 'pesisir', 'angin_kencang', 'angin', 'jawa', 'atap', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'banjir', 'bpbd', 'longsor', 'hujan', 'tumbang', 'jawa', 'waspada', 'laut', 'angin', 'bmkg', 'relawan', 'membantu', 'cuaca_ekstrem', 'potensi']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pembangunan', 'bpbd', 'genangan', 'hujan', 'sungai', 'terdampak_banjir', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['titik', 'pohon_tumbang', 'banjir', 'genangan', 'hujan', 'tumbang']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'mengungsi', 'banjir', 'bpbd', 'upaya', 'hujan', 'ketinggian', 'sungai', 'terdampak_banjir', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['banjir', 'hujan', 'ketinggian', 'terdampak_banjir', 'pasar', 'membantu']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'pembangunan', 'unit', 'longsor', 'bangunan', 'gempa_cianjur', 'pengungsi', 'tanah', 'sampah', 'bmkg', 'dibangun', 'pemerintah', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'tsunami', 'unit', 'bangunan', 'kedalaman', 'pusat_gempa', 'jawa', 'pesisir', 'laut', 'bmkg', 'terdampak', 'potensi']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'polisi', 'api', 'jakarta', 'kegiatan', 'kebakaran', 'alam']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'kali', 'tumbang', 'angin', 'atap', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['banjir', 'hujan', 'miliar', 'tanah', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['titik', 'api', 'terbakar', 'kebakaran', 'atap', 'tim', 'damkar']</t>
+  </si>
+  <si>
+    <t>['program', 'banjir', 'pembangunan', 'sampah', 'lingkungan']</t>
+  </si>
+  <si>
+    <t>['titik', 'pemerintah', 'kali']</t>
+  </si>
+  <si>
+    <t>['hujan', 'waspada', 'alam', 'banjir', 'longsor', 'bangunan', 'bmkg', 'atap', 'bantuan', 'peristiwa', 'bpbd', 'makanan', 'kencang', 'cuaca', 'berpotensi', 'unit', 'ditemukan', 'angin', 'banjir_bandang', 'membantu', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['banjir', 'polisi', 'ditemukan', 'tanah', 'semarang', 'sungai', 'relawan', 'membantu', 'tim']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'banjir', 'bpbd', 'hujan', 'ketinggian', 'arah', 'sungai', 'surut', 'lebat']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pembangunan', 'tim']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pembangunan', 'unit', 'genangan', 'jakarta', 'tanah', 'heru', 'kegiatan', 'dinas', 'cuaca', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['polisi', 'peristiwa', 'api', 'terbakar', 'kebakaran', 'pasar']</t>
+  </si>
+  <si>
+    <t>['mobil', 'polisi', 'bpbd', 'kendaraan', 'ditemukan', 'longsor', 'tanah', 'sungai', 'jalur']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'bandung', 'bpbd', 'longsor', 'arah', 'tanah', 'potensi', 'jalur']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'banjir']</t>
+  </si>
+  <si>
+    <t>['titik', 'terendam_banjir', 'banjir', 'gelombang', 'ketinggian', 'kencang', 'pantai', 'tanah', 'semarang', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['mobil', 'polisi', 'jiwa', 'terbakar', 'kali', 'jawa', 'kebakaran', 'damkar']</t>
+  </si>
+  <si>
+    <t>['api', 'jakarta', 'terbakar', 'kali', 'tanah', 'kebakaran']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'mobil', 'pembangunan', 'sekolah', 'makassar', 'upaya', 'tanah', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['berpotensi', 'makassar', 'hujan', 'kencang', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'petir', 'terdampak', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['titik', 'cuaca_ekstrem', 'banjir', 'bpbd', 'hujan', 'ketinggian', 'cuaca', 'waspada', 'bmkg', 'banjir_rob', 'rob']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'polisi', 'ditemukan', 'upaya', 'bangunan', 'gempa_cianjur', 'jawa', 'tim', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'kedalaman', 'pusat_gempa', 'bmkg']</t>
+  </si>
+  <si>
+    <t>['banjir', 'pemerintah', 'jakarta']</t>
+  </si>
+  <si>
+    <t>['titik', 'terendam_banjir', 'banjir', 'bpbd', 'longsor', 'jiwa', 'hujan', 'kencang', 'waspada', 'angin_kencang', 'angin', 'bmkg', 'hujan_lebat', 'lebat', 'cuaca_ekstrem', 'alam']</t>
+  </si>
+  <si>
+    <t>['mengungsi', 'pembangunan', 'banjir', 'bpbd', 'genangan', 'jiwa', 'hujan', 'ketinggian', 'sungai', 'jawa', 'terdampak_banjir', 'membantu', 'banjir_rob', 'rob', 'pompa']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'jiwa', 'hujan', 'pohon', 'kencang', 'luka', 'tumbang', 'cuaca', 'angin_kencang', 'angin', 'waspada', 'atap']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'magnitudo', 'berpotensi', 'tsunami', 'jiwa', 'kedalaman', 'kali', 'laut', 'bmkg']</t>
+  </si>
+  <si>
+    <t>['polisi', 'unit', 'api', 'pemerintah', 'terbakar', 'kebakaran', 'dinas', 'pasar', 'dibangun', 'tim', 'pedagang']</t>
+  </si>
+  <si>
+    <t>['banjir', 'ditemukan', 'longsor', 'hujan', 'sungai', 'jawa', 'banjir_bandang']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'genangan', 'hujan', 'ketinggian', 'waspada', 'lebat', 'banjir', 'gelombang', 'makassar', 'longsor', 'laut', 'bmkg', 'kencang', 'cuaca', 'angin_kencang', 'hujan_lebat', 'berpotensi', 'tumbang', 'angin', 'cuaca_ekstrem', 'potensi']</t>
+  </si>
+  <si>
+    <t>['mengungsi', 'banjir', 'gelombang', 'hujan', 'kencang', 'jawa', 'cuaca', 'pesisir', 'angin', 'bmkg', 'terdampak_banjir', 'kapal', 'banjir_rob', 'terdampak', 'cuaca_ekstrem', 'rob']</t>
+  </si>
+  <si>
+    <t>['kebakaran', 'mobil', 'tim', 'damkar']</t>
+  </si>
+  <si>
+    <t>['titik', 'mengungsi', 'banjir', 'bpbd', 'unit', 'upaya', 'jiwa', 'hujan', 'pantai', 'kereta', 'pengungsi', 'dapur', 'semarang', 'jawa', 'terdampak_banjir', 'terdampak', 'tim', 'pompa']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'banjir', 'bpbd', 'longsor', 'hujan', 'tanah', 'tumbang', 'sungai', 'jawa', 'laut', 'angin', 'hujan_lebat', 'lebat']</t>
+  </si>
+  <si>
+    <t>['kebakaran', 'alam', 'damkar', 'ditemukan']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'mengungsi', 'banjir', 'danau', 'jiwa', 'ketinggian', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'tenda', 'longsor', 'luka', 'dinas', 'banjir_bandang', 'terdampak', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'unit', 'api', 'bangunan', 'terbakar', 'dapur', 'kebakaran', 'atap', 'membantu', 'tim']</t>
+  </si>
+  <si>
+    <t>['gempa', 'mengungsi', 'gempa_bumi', 'bandung', 'unit', 'upaya', 'gempa_cianjur', 'luka', 'tanah', 'potensi', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['banjir', 'peristiwa', 'gelombang', 'hujan', 'pohon', 'sungai', 'cuaca', 'lingkungan', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'banjir', 'polisi', 'peristiwa', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'sekolah', 'hujan', 'dibangun', 'kali', 'semarang', 'jawa', 'laut', 'petir', 'banjir_rob', 'rob', 'pedagang']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'terendam_banjir', 'atap', 'mengungsi', 'banjir', 'kendaraan', 'genangan', 'hujan', 'ketinggian', 'jawa', 'terdampak_banjir', 'lebat']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'unit', 'jakarta', 'kali', 'sungai', 'kebakaran', 'tim', 'damkar']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'banjir', 'makassar', 'genangan', 'pohon', 'kencang', 'tumbang', 'cuaca', 'angin_kencang', 'angin', 'potensi']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'magnitudo', 'gelombang', 'tsunami', 'kedalaman', 'arah', 'pusat_gempa', 'laut', 'bmkg', 'getaran']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'ditemukan', 'hujan', 'jawa', 'banjir_bandang', 'terdampak_banjir', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['titik', 'api', 'pantai', 'kencang', 'kali', 'pesisir', 'laut', 'angin', 'kapal', 'pasar', 'jembatan']</t>
+  </si>
+  <si>
+    <t>['gempa', 'gempa_bumi', 'bpbd', 'gempa_susulan', 'kedalaman', 'kali', 'getaran']</t>
+  </si>
+  <si>
+    <t>['miliar', 'terbakar', 'kebakaran', 'dinas', 'pasar']</t>
+  </si>
+  <si>
+    <t>['mengungsi', 'peristiwa', 'bpbd', 'unit', 'jiwa', 'dinas', 'angin', 'atap', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['titik', 'terendam_banjir', 'banjir', 'bpbd_dki', 'bpbd', 'genangan', 'hujan', 'ketinggian', 'jakarta', 'kencang', 'dinas', 'surut', 'angin', 'potensi', 'damkar']</t>
+  </si>
+  <si>
+    <t>['banjir', 'bandung', 'ditemukan', 'hujan', 'lingkungan', 'sampah', 'kali', 'sungai', 'kegiatan', 'lebat', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['mengungsi', 'banjir', 'unit', 'makassar', 'jiwa', 'kali', 'terdampak_banjir', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'terendam_banjir', 'banjir', 'tenda', 'makanan', 'dapur', 'membantu']</t>
+  </si>
+  <si>
+    <t>['titik', 'terendam_banjir', 'banjir', 'kendaraan', 'bpbd', 'hujan', 'terdampak_banjir', 'membantu']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'banjir', 'peristiwa', 'tenda', 'longsor', 'jiwa', 'kencang', 'waspada', 'angin_kencang', 'angin', 'atap', 'terdampak', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['terendam_banjir', 'pembangunan', 'peristiwa', 'banjir', 'genangan', 'hujan', 'pantai', 'kali', 'cuaca', 'lebat', 'banjir_rob', 'pemerintah', 'pedagang']</t>
+  </si>
+  <si>
+    <t>['gempa', 'bantuan', 'gempa_bumi', 'tenda', 'makanan', 'ditemukan', 'cianjur', 'pengungsi', 'membantu', 'terdampak', 'jembatan', 'alam']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'banjir', 'bpbd', 'makanan', 'hujan', 'ketinggian', 'dapur', 'sungai', 'surut', 'terdampak_banjir', 'relawan', 'lingkungan']</t>
+  </si>
+  <si>
+    <t>['banjir', 'berpotensi', 'bpbd_dki', 'jakarta', 'heru', 'pemprov_dki', 'terdampak', 'cuaca_ekstrem', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'polisi', 'genangan', 'hujan', 'ketinggian', 'semarang', 'surut', 'terdampak', 'jalur']</t>
+  </si>
+  <si>
+    <t>['jiwa', 'api', 'jakarta', 'luka', 'terbakar', 'angin', 'kebakaran']</t>
+  </si>
+  <si>
+    <t>['banjir', 'genangan', 'kereta', 'jakarta', 'arah', 'semarang', 'jawa', 'pasar', 'jalur']</t>
+  </si>
+  <si>
+    <t>['peristiwa', 'bpbd', 'longsor', 'hujan', 'ketinggian', 'tanah']</t>
+  </si>
+  <si>
+    <t>['pasar', 'kebakaran', 'pedagang', 'api']</t>
+  </si>
+  <si>
+    <t>['titik', 'bantuan', 'gempa', 'peristiwa', 'gempa_bumi', 'kendaraan', 'kali', 'kegiatan', 'terdampak', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['titik', 'bpbd', 'api', 'terbakar', 'kali', 'kebakaran', 'membantu', 'pasar']</t>
+  </si>
+  <si>
+    <t>['titik', 'bantuan', 'banjir', 'bpbd_dki', 'bpbd', 'genangan', 'hujan', 'lingkungan', 'jakarta', 'kali', 'waspada', 'lebat', 'terdampak']</t>
+  </si>
+  <si>
+    <t>['kali', 'waspada', 'laut', 'pantai']</t>
+  </si>
+  <si>
+    <t>['pohon_tumbang', 'hujan', 'ketinggian', 'luka', 'waspada', 'lebat', 'terdampak', 'banjir', 'makassar', 'bmkg', 'bantuan', 'bpbd', 'kencang', 'sungai', 'angin_kencang', 'terdampak_banjir', 'mengungsi', 'berpotensi', 'jiwa', 'tumbang', 'angin', 'petir', 'cuaca_ekstrem']</t>
+  </si>
+  <si>
+    <t>['polisi', 'bpbd', 'unit', 'ditemukan', 'longsor', 'hujan', 'dapur', 'cuaca', 'dinas', 'hujan_lebat', 'lebat', 'damkar']</t>
+  </si>
+  <si>
+    <t>['kencang', 'angin_kencang', 'angin', 'alam']</t>
+  </si>
+  <si>
+    <t>['titik', 'bantuan', 'mobil', 'bandung', 'waspada', 'kebakaran', 'jalur']</t>
+  </si>
+  <si>
+    <t>['banjir', 'kali', 'jawa', 'pelaku', 'pedagang']</t>
+  </si>
+  <si>
+    <t>['kendaraan', 'mobil', 'unit', 'jakarta', 'kebakaran', 'damkar']</t>
+  </si>
+  <si>
+    <t>['titik', 'banjir', 'bpbd', 'upaya', 'longsor', 'hujan', 'luka', 'tanah', 'banjir_bandang', 'alam']</t>
+  </si>
+  <si>
+    <t>['banjir', 'berpotensi', 'gelombang', 'danau', 'longsor', 'hujan', 'kencang', 'sungai', 'pesisir', 'angin_kencang', 'angin', 'bmkg', 'waspada', 'kapal', 'lebat', 'hujan_lebat']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'banjir', 'peristiwa', 'tsunami', 'gempa_bumi', 'kali', 'banjir_rob']</t>
+  </si>
+  <si>
+    <t>['titik', 'gempa', 'magnitudo', 'berpotensi', 'tsunami', 'gempa_bumi', 'gempa_susulan', 'bangunan', 'kedalaman', 'arah', 'pusat_gempa', 'laut', 'bmkg', 'getaran']</t>
+  </si>
+  <si>
+    <t>['gempa', 'bandung', 'makanan', 'kali', 'kegiatan', 'alam']</t>
+  </si>
+  <si>
+    <t>['bantuan', 'mengungsi', 'banjir', 'gelombang', 'bpbd', 'makassar', 'longsor', 'kencang', 'pesisir', 'laut', 'angin', 'waspada', 'membantu', 'pemerintah']</t>
+  </si>
+  <si>
+    <t>['titik', 'bantuan', 'gempa', 'gempa_bumi', 'bandung', 'tanah', 'kegiatan', 'relawan', 'tim', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['titik', 'terendam_banjir', 'genangan', 'hujan', 'waspada', 'banjir', 'laut', 'surut', 'bmkg', 'bantuan', 'bpbd', 'kencang', 'pesisir', 'angin_kencang', 'cuaca', 'rob', 'pemerintah', 'jawa', 'angin', 'cuaca_ekstrem', 'potensi']</t>
+  </si>
+  <si>
+    <t>['gempa', 'bantuan', 'mobil', 'gempa_bumi', 'unit', 'gempa_cianjur', 'luka', 'pengungsi', 'relawan', 'membantu', 'terdampak', 'tim', 'cianjur']</t>
+  </si>
+  <si>
+    <t>['sungai', 'pembangunan', 'banjir', 'bendungan']</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13648,6 +13645,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -13685,11 +13690,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -13994,8 +14000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="H125" sqref="H125"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14040,76 +14046,76 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>632</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
         <v>10</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>633</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
         <v>13</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>634</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -14118,7 +14124,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>635</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -14127,15 +14133,15 @@
         <v>0</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -14144,7 +14150,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>636</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -14153,15 +14159,15 @@
         <v>0</v>
       </c>
       <c r="H6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -14170,7 +14176,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>637</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -14179,15 +14185,15 @@
         <v>0</v>
       </c>
       <c r="H7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -14196,7 +14202,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>638</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -14205,15 +14211,15 @@
         <v>0</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -14222,7 +14228,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>639</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -14231,15 +14237,15 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -14248,7 +14254,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>640</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -14257,15 +14263,15 @@
         <v>0</v>
       </c>
       <c r="H10" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -14274,7 +14280,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>641</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -14283,15 +14289,15 @@
         <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -14300,7 +14306,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>50</v>
+        <v>642</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -14309,15 +14315,15 @@
         <v>0</v>
       </c>
       <c r="H12" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -14326,7 +14332,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>54</v>
+        <v>643</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -14335,15 +14341,15 @@
         <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -14352,7 +14358,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>644</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -14361,15 +14367,15 @@
         <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -14378,7 +14384,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>62</v>
+        <v>645</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -14387,15 +14393,15 @@
         <v>0</v>
       </c>
       <c r="H15" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>51</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -14404,7 +14410,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>66</v>
+        <v>646</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -14413,15 +14419,15 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -14430,7 +14436,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>647</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -14439,15 +14445,15 @@
         <v>0</v>
       </c>
       <c r="H17" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -14456,7 +14462,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>648</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -14465,15 +14471,15 @@
         <v>0</v>
       </c>
       <c r="H18" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -14482,7 +14488,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>78</v>
+        <v>649</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -14491,15 +14497,15 @@
         <v>0</v>
       </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -14508,7 +14514,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>650</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -14517,15 +14523,15 @@
         <v>0</v>
       </c>
       <c r="H20" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -14534,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>86</v>
+        <v>651</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -14543,15 +14549,15 @@
         <v>0</v>
       </c>
       <c r="H21" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B22" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -14560,7 +14566,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>90</v>
+        <v>652</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -14569,15 +14575,15 @@
         <v>0</v>
       </c>
       <c r="H22" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>72</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -14586,7 +14592,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>653</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -14595,15 +14601,15 @@
         <v>0</v>
       </c>
       <c r="H23" t="s">
-        <v>95</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -14612,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>654</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -14621,15 +14627,15 @@
         <v>0</v>
       </c>
       <c r="H24" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -14638,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>102</v>
+        <v>655</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -14647,15 +14653,15 @@
         <v>0</v>
       </c>
       <c r="H25" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -14664,7 +14670,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>656</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -14673,15 +14679,15 @@
         <v>0</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>84</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -14690,7 +14696,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>657</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -14699,15 +14705,15 @@
         <v>0</v>
       </c>
       <c r="H27" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -14716,7 +14722,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>114</v>
+        <v>658</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -14725,15 +14731,15 @@
         <v>0</v>
       </c>
       <c r="H28" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -14742,7 +14748,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>659</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -14751,15 +14757,15 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -14768,7 +14774,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>122</v>
+        <v>660</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -14777,15 +14783,15 @@
         <v>0</v>
       </c>
       <c r="H30" t="s">
-        <v>123</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -14794,7 +14800,7 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>126</v>
+        <v>661</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -14803,15 +14809,15 @@
         <v>0</v>
       </c>
       <c r="H31" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -14820,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>130</v>
+        <v>662</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -14829,15 +14835,15 @@
         <v>0</v>
       </c>
       <c r="H32" t="s">
-        <v>131</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
-        <v>133</v>
+        <v>102</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -14846,7 +14852,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>663</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -14855,15 +14861,15 @@
         <v>0</v>
       </c>
       <c r="H33" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -14872,7 +14878,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>138</v>
+        <v>664</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -14881,15 +14887,15 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>139</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>140</v>
+        <v>107</v>
       </c>
       <c r="B35" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -14898,7 +14904,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>142</v>
+        <v>665</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -14907,15 +14913,15 @@
         <v>0</v>
       </c>
       <c r="H35" t="s">
-        <v>143</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>110</v>
       </c>
       <c r="B36" t="s">
-        <v>145</v>
+        <v>111</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -14924,7 +14930,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>666</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -14933,15 +14939,15 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>148</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -14950,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>150</v>
+        <v>667</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -14959,15 +14965,15 @@
         <v>0</v>
       </c>
       <c r="H37" t="s">
-        <v>151</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
-        <v>153</v>
+        <v>117</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -14976,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>154</v>
+        <v>668</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -14985,15 +14991,15 @@
         <v>0</v>
       </c>
       <c r="H38" t="s">
-        <v>155</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>156</v>
+        <v>119</v>
       </c>
       <c r="B39" t="s">
-        <v>157</v>
+        <v>120</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -15002,7 +15008,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>158</v>
+        <v>669</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -15011,15 +15017,15 @@
         <v>0</v>
       </c>
       <c r="H39" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="B40" t="s">
-        <v>161</v>
+        <v>123</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -15028,7 +15034,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>162</v>
+        <v>670</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -15037,15 +15043,15 @@
         <v>0</v>
       </c>
       <c r="H40" t="s">
-        <v>163</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>164</v>
+        <v>125</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>126</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -15054,7 +15060,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>671</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -15063,15 +15069,15 @@
         <v>0</v>
       </c>
       <c r="H41" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="B42" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -15080,7 +15086,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>170</v>
+        <v>672</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -15089,15 +15095,15 @@
         <v>0</v>
       </c>
       <c r="H42" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>172</v>
+        <v>131</v>
       </c>
       <c r="B43" t="s">
-        <v>173</v>
+        <v>132</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -15106,7 +15112,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>673</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -15114,16 +15120,16 @@
       <c r="G43">
         <v>0</v>
       </c>
-      <c r="H43" t="s">
-        <v>175</v>
+      <c r="H43" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>176</v>
+        <v>134</v>
       </c>
       <c r="B44" t="s">
-        <v>177</v>
+        <v>135</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -15132,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>178</v>
+        <v>674</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -15141,15 +15147,15 @@
         <v>0</v>
       </c>
       <c r="H44" t="s">
-        <v>179</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>180</v>
+        <v>137</v>
       </c>
       <c r="B45" t="s">
-        <v>181</v>
+        <v>138</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -15158,7 +15164,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>675</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -15167,15 +15173,15 @@
         <v>0</v>
       </c>
       <c r="H45" t="s">
-        <v>183</v>
+        <v>139</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="B46" t="s">
-        <v>185</v>
+        <v>141</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -15184,7 +15190,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="s">
-        <v>186</v>
+        <v>676</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -15193,15 +15199,15 @@
         <v>0</v>
       </c>
       <c r="H46" t="s">
-        <v>187</v>
+        <v>142</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>188</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>189</v>
+        <v>144</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -15210,7 +15216,7 @@
         <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>190</v>
+        <v>677</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -15219,15 +15225,15 @@
         <v>0</v>
       </c>
       <c r="H47" t="s">
-        <v>191</v>
+        <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>193</v>
+        <v>147</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -15236,7 +15242,7 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>194</v>
+        <v>678</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -15245,15 +15251,15 @@
         <v>0</v>
       </c>
       <c r="H48" t="s">
-        <v>195</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>196</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>197</v>
+        <v>150</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -15262,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>198</v>
+        <v>679</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -15271,15 +15277,15 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>199</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>200</v>
+        <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>201</v>
+        <v>153</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -15288,7 +15294,7 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>202</v>
+        <v>680</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -15297,15 +15303,15 @@
         <v>0</v>
       </c>
       <c r="H50" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="B51" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -15314,7 +15320,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>206</v>
+        <v>681</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -15323,15 +15329,15 @@
         <v>0</v>
       </c>
       <c r="H51" t="s">
-        <v>207</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="B52" t="s">
-        <v>209</v>
+        <v>159</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -15340,7 +15346,7 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>210</v>
+        <v>682</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -15349,15 +15355,15 @@
         <v>0</v>
       </c>
       <c r="H52" t="s">
-        <v>211</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="B53" t="s">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -15366,7 +15372,7 @@
         <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>214</v>
+        <v>683</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -15375,15 +15381,15 @@
         <v>0</v>
       </c>
       <c r="H53" t="s">
-        <v>215</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>216</v>
+        <v>164</v>
       </c>
       <c r="B54" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -15392,7 +15398,7 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>218</v>
+        <v>684</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -15401,15 +15407,15 @@
         <v>0</v>
       </c>
       <c r="H54" t="s">
-        <v>219</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>220</v>
+        <v>167</v>
       </c>
       <c r="B55" t="s">
-        <v>221</v>
+        <v>168</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -15418,7 +15424,7 @@
         <v>0</v>
       </c>
       <c r="E55" t="s">
-        <v>222</v>
+        <v>685</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -15427,15 +15433,15 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>223</v>
+        <v>169</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
-        <v>225</v>
+        <v>171</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -15444,7 +15450,7 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>226</v>
+        <v>686</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -15453,15 +15459,15 @@
         <v>0</v>
       </c>
       <c r="H56" t="s">
-        <v>227</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>228</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>229</v>
+        <v>174</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -15470,7 +15476,7 @@
         <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>230</v>
+        <v>687</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -15479,15 +15485,15 @@
         <v>0</v>
       </c>
       <c r="H57" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -15496,7 +15502,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>234</v>
+        <v>688</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -15505,15 +15511,15 @@
         <v>0</v>
       </c>
       <c r="H58" t="s">
-        <v>235</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>236</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>237</v>
+        <v>180</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -15522,7 +15528,7 @@
         <v>0</v>
       </c>
       <c r="E59" t="s">
-        <v>238</v>
+        <v>689</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -15531,15 +15537,15 @@
         <v>0</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>240</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="C60">
         <v>1</v>
@@ -15548,7 +15554,7 @@
         <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>242</v>
+        <v>690</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -15557,15 +15563,15 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B61" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="C61">
         <v>1</v>
@@ -15574,7 +15580,7 @@
         <v>0</v>
       </c>
       <c r="E61" t="s">
-        <v>246</v>
+        <v>691</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -15583,15 +15589,15 @@
         <v>0</v>
       </c>
       <c r="H61" t="s">
-        <v>247</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>248</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>249</v>
+        <v>189</v>
       </c>
       <c r="C62">
         <v>1</v>
@@ -15600,7 +15606,7 @@
         <v>0</v>
       </c>
       <c r="E62" t="s">
-        <v>250</v>
+        <v>692</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -15609,15 +15615,15 @@
         <v>0</v>
       </c>
       <c r="H62" t="s">
-        <v>251</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>253</v>
+        <v>192</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -15626,7 +15632,7 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>254</v>
+        <v>693</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -15635,15 +15641,15 @@
         <v>0</v>
       </c>
       <c r="H63" t="s">
-        <v>255</v>
+        <v>193</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="B64" t="s">
-        <v>257</v>
+        <v>195</v>
       </c>
       <c r="C64">
         <v>1</v>
@@ -15652,7 +15658,7 @@
         <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>258</v>
+        <v>694</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -15661,15 +15667,15 @@
         <v>0</v>
       </c>
       <c r="H64" t="s">
-        <v>259</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>260</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>261</v>
+        <v>198</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -15678,7 +15684,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>262</v>
+        <v>695</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -15687,15 +15693,15 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>263</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>264</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="C66">
         <v>1</v>
@@ -15704,7 +15710,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>266</v>
+        <v>696</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -15713,15 +15719,15 @@
         <v>0</v>
       </c>
       <c r="H66" t="s">
-        <v>267</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>203</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>204</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -15730,7 +15736,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>270</v>
+        <v>697</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -15739,15 +15745,15 @@
         <v>0</v>
       </c>
       <c r="H67" t="s">
-        <v>271</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>272</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>273</v>
+        <v>207</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -15756,7 +15762,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>698</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -15765,15 +15771,15 @@
         <v>0</v>
       </c>
       <c r="H68" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>276</v>
+        <v>209</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>210</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -15782,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>699</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -15791,15 +15797,15 @@
         <v>0</v>
       </c>
       <c r="H69" t="s">
-        <v>279</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>280</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>281</v>
+        <v>213</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -15808,7 +15814,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>282</v>
+        <v>700</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -15817,15 +15823,15 @@
         <v>0</v>
       </c>
       <c r="H70" t="s">
-        <v>283</v>
+        <v>214</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>284</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -15834,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>286</v>
+        <v>701</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -15843,15 +15849,15 @@
         <v>0</v>
       </c>
       <c r="H71" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>288</v>
+        <v>218</v>
       </c>
       <c r="B72" t="s">
-        <v>289</v>
+        <v>219</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -15860,7 +15866,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>290</v>
+        <v>702</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -15869,15 +15875,15 @@
         <v>0</v>
       </c>
       <c r="H72" t="s">
-        <v>291</v>
+        <v>220</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>292</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>293</v>
+        <v>222</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -15886,7 +15892,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>294</v>
+        <v>703</v>
       </c>
       <c r="F73">
         <v>1</v>
@@ -15895,15 +15901,15 @@
         <v>0</v>
       </c>
       <c r="H73" t="s">
-        <v>295</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>296</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>297</v>
+        <v>225</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -15912,7 +15918,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>298</v>
+        <v>704</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -15921,15 +15927,15 @@
         <v>0</v>
       </c>
       <c r="H74" t="s">
-        <v>299</v>
+        <v>226</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>300</v>
+        <v>227</v>
       </c>
       <c r="B75" t="s">
-        <v>301</v>
+        <v>228</v>
       </c>
       <c r="C75">
         <v>1</v>
@@ -15938,7 +15944,7 @@
         <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>302</v>
+        <v>705</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -15947,15 +15953,15 @@
         <v>0</v>
       </c>
       <c r="H75" t="s">
-        <v>303</v>
+        <v>229</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="B76" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="C76">
         <v>1</v>
@@ -15964,7 +15970,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>306</v>
+        <v>706</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -15973,15 +15979,15 @@
         <v>0</v>
       </c>
       <c r="H76" t="s">
-        <v>307</v>
+        <v>232</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>309</v>
+        <v>234</v>
       </c>
       <c r="C77">
         <v>1</v>
@@ -15990,7 +15996,7 @@
         <v>0</v>
       </c>
       <c r="E77" t="s">
-        <v>310</v>
+        <v>707</v>
       </c>
       <c r="F77">
         <v>1</v>
@@ -15999,15 +16005,15 @@
         <v>0</v>
       </c>
       <c r="H77" t="s">
-        <v>311</v>
+        <v>235</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>312</v>
+        <v>236</v>
       </c>
       <c r="B78" t="s">
-        <v>313</v>
+        <v>237</v>
       </c>
       <c r="C78">
         <v>1</v>
@@ -16016,7 +16022,7 @@
         <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>314</v>
+        <v>708</v>
       </c>
       <c r="F78">
         <v>1</v>
@@ -16025,15 +16031,15 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>315</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>239</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>240</v>
       </c>
       <c r="C79">
         <v>1</v>
@@ -16042,7 +16048,7 @@
         <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>318</v>
+        <v>709</v>
       </c>
       <c r="F79">
         <v>1</v>
@@ -16051,15 +16057,15 @@
         <v>0</v>
       </c>
       <c r="H79" t="s">
-        <v>319</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>320</v>
+        <v>242</v>
       </c>
       <c r="B80" t="s">
-        <v>321</v>
+        <v>243</v>
       </c>
       <c r="C80">
         <v>1</v>
@@ -16068,7 +16074,7 @@
         <v>0</v>
       </c>
       <c r="E80" t="s">
-        <v>322</v>
+        <v>710</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -16077,15 +16083,15 @@
         <v>0</v>
       </c>
       <c r="H80" t="s">
-        <v>323</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>324</v>
+        <v>245</v>
       </c>
       <c r="B81" t="s">
-        <v>325</v>
+        <v>246</v>
       </c>
       <c r="C81">
         <v>1</v>
@@ -16094,7 +16100,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>326</v>
+        <v>711</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -16103,15 +16109,15 @@
         <v>0</v>
       </c>
       <c r="H81" t="s">
-        <v>327</v>
+        <v>247</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>328</v>
+        <v>248</v>
       </c>
       <c r="B82" t="s">
-        <v>329</v>
+        <v>249</v>
       </c>
       <c r="C82">
         <v>1</v>
@@ -16120,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="E82" t="s">
-        <v>330</v>
+        <v>712</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -16129,15 +16135,15 @@
         <v>0</v>
       </c>
       <c r="H82" t="s">
-        <v>331</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>332</v>
+        <v>251</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>252</v>
       </c>
       <c r="C83">
         <v>0</v>
@@ -16146,7 +16152,7 @@
         <v>0</v>
       </c>
       <c r="E83" t="s">
-        <v>334</v>
+        <v>713</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -16155,15 +16161,15 @@
         <v>0</v>
       </c>
       <c r="H83" t="s">
-        <v>335</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>336</v>
+        <v>254</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="C84">
         <v>1</v>
@@ -16172,7 +16178,7 @@
         <v>0</v>
       </c>
       <c r="E84" t="s">
-        <v>338</v>
+        <v>714</v>
       </c>
       <c r="F84">
         <v>1</v>
@@ -16181,15 +16187,15 @@
         <v>0</v>
       </c>
       <c r="H84" t="s">
-        <v>339</v>
+        <v>256</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>340</v>
+        <v>257</v>
       </c>
       <c r="B85" t="s">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="C85">
         <v>1</v>
@@ -16198,7 +16204,7 @@
         <v>0</v>
       </c>
       <c r="E85" t="s">
-        <v>342</v>
+        <v>715</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -16207,15 +16213,15 @@
         <v>0</v>
       </c>
       <c r="H85" t="s">
-        <v>343</v>
+        <v>259</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>344</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="C86">
         <v>1</v>
@@ -16224,7 +16230,7 @@
         <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>346</v>
+        <v>716</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -16233,15 +16239,15 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>347</v>
+        <v>262</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>348</v>
+        <v>263</v>
       </c>
       <c r="B87" t="s">
-        <v>349</v>
+        <v>264</v>
       </c>
       <c r="C87">
         <v>1</v>
@@ -16250,7 +16256,7 @@
         <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>350</v>
+        <v>717</v>
       </c>
       <c r="F87">
         <v>1</v>
@@ -16259,15 +16265,15 @@
         <v>0</v>
       </c>
       <c r="H87" t="s">
-        <v>351</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>352</v>
+        <v>266</v>
       </c>
       <c r="B88" t="s">
-        <v>353</v>
+        <v>267</v>
       </c>
       <c r="C88">
         <v>1</v>
@@ -16276,7 +16282,7 @@
         <v>0</v>
       </c>
       <c r="E88" t="s">
-        <v>354</v>
+        <v>718</v>
       </c>
       <c r="F88">
         <v>1</v>
@@ -16284,16 +16290,16 @@
       <c r="G88">
         <v>0</v>
       </c>
-      <c r="H88" t="s">
-        <v>355</v>
+      <c r="H88" s="2" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>356</v>
+        <v>269</v>
       </c>
       <c r="B89" t="s">
-        <v>357</v>
+        <v>270</v>
       </c>
       <c r="C89">
         <v>1</v>
@@ -16302,7 +16308,7 @@
         <v>0</v>
       </c>
       <c r="E89" t="s">
-        <v>358</v>
+        <v>719</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -16311,15 +16317,15 @@
         <v>0</v>
       </c>
       <c r="H89" t="s">
-        <v>359</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>360</v>
+        <v>272</v>
       </c>
       <c r="B90" t="s">
-        <v>361</v>
+        <v>273</v>
       </c>
       <c r="C90">
         <v>1</v>
@@ -16328,7 +16334,7 @@
         <v>0</v>
       </c>
       <c r="E90" t="s">
-        <v>362</v>
+        <v>720</v>
       </c>
       <c r="F90">
         <v>1</v>
@@ -16337,15 +16343,15 @@
         <v>0</v>
       </c>
       <c r="H90" t="s">
-        <v>363</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>364</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="C91">
         <v>1</v>
@@ -16354,7 +16360,7 @@
         <v>0</v>
       </c>
       <c r="E91" t="s">
-        <v>366</v>
+        <v>721</v>
       </c>
       <c r="F91">
         <v>1</v>
@@ -16363,15 +16369,15 @@
         <v>0</v>
       </c>
       <c r="H91" t="s">
-        <v>367</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>368</v>
+        <v>278</v>
       </c>
       <c r="B92" t="s">
-        <v>369</v>
+        <v>279</v>
       </c>
       <c r="C92">
         <v>1</v>
@@ -16380,7 +16386,7 @@
         <v>0</v>
       </c>
       <c r="E92" t="s">
-        <v>370</v>
+        <v>722</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -16389,15 +16395,15 @@
         <v>0</v>
       </c>
       <c r="H92" t="s">
-        <v>371</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>372</v>
+        <v>281</v>
       </c>
       <c r="B93" t="s">
-        <v>373</v>
+        <v>282</v>
       </c>
       <c r="C93">
         <v>1</v>
@@ -16406,7 +16412,7 @@
         <v>0</v>
       </c>
       <c r="E93" t="s">
-        <v>374</v>
+        <v>723</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -16415,15 +16421,15 @@
         <v>0</v>
       </c>
       <c r="H93" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="B94" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -16432,7 +16438,7 @@
         <v>0</v>
       </c>
       <c r="E94" t="s">
-        <v>378</v>
+        <v>724</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -16441,15 +16447,15 @@
         <v>0</v>
       </c>
       <c r="H94" t="s">
-        <v>379</v>
+        <v>286</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>380</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
-        <v>381</v>
+        <v>288</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -16458,7 +16464,7 @@
         <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>382</v>
+        <v>289</v>
       </c>
       <c r="F95">
         <v>1</v>
@@ -16467,15 +16473,15 @@
         <v>0</v>
       </c>
       <c r="H95" t="s">
-        <v>383</v>
+        <v>290</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>384</v>
+        <v>291</v>
       </c>
       <c r="B96" t="s">
-        <v>385</v>
+        <v>292</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -16484,7 +16490,7 @@
         <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>386</v>
+        <v>725</v>
       </c>
       <c r="F96">
         <v>1</v>
@@ -16493,15 +16499,15 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>387</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>388</v>
+        <v>294</v>
       </c>
       <c r="B97" t="s">
-        <v>389</v>
+        <v>295</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -16510,7 +16516,7 @@
         <v>0</v>
       </c>
       <c r="E97" t="s">
-        <v>390</v>
+        <v>726</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -16519,15 +16525,15 @@
         <v>0</v>
       </c>
       <c r="H97" t="s">
-        <v>391</v>
+        <v>296</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>392</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
-        <v>393</v>
+        <v>298</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -16536,7 +16542,7 @@
         <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>394</v>
+        <v>727</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -16545,15 +16551,15 @@
         <v>0</v>
       </c>
       <c r="H98" t="s">
-        <v>395</v>
+        <v>299</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>396</v>
+        <v>300</v>
       </c>
       <c r="B99" t="s">
-        <v>397</v>
+        <v>301</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -16562,7 +16568,7 @@
         <v>0</v>
       </c>
       <c r="E99" t="s">
-        <v>398</v>
+        <v>728</v>
       </c>
       <c r="F99">
         <v>1</v>
@@ -16571,15 +16577,15 @@
         <v>0</v>
       </c>
       <c r="H99" t="s">
-        <v>399</v>
+        <v>302</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>400</v>
+        <v>303</v>
       </c>
       <c r="B100" t="s">
-        <v>401</v>
+        <v>304</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -16588,7 +16594,7 @@
         <v>0</v>
       </c>
       <c r="E100" t="s">
-        <v>402</v>
+        <v>729</v>
       </c>
       <c r="F100">
         <v>1</v>
@@ -16597,15 +16603,15 @@
         <v>0</v>
       </c>
       <c r="H100" t="s">
-        <v>403</v>
+        <v>305</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="B101" t="s">
-        <v>405</v>
+        <v>307</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -16614,7 +16620,7 @@
         <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>406</v>
+        <v>730</v>
       </c>
       <c r="F101">
         <v>1</v>
@@ -16623,15 +16629,15 @@
         <v>0</v>
       </c>
       <c r="H101" t="s">
-        <v>407</v>
+        <v>308</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>408</v>
+        <v>309</v>
       </c>
       <c r="B102" t="s">
-        <v>409</v>
+        <v>310</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -16640,7 +16646,7 @@
         <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>410</v>
+        <v>731</v>
       </c>
       <c r="F102">
         <v>1</v>
@@ -16649,15 +16655,15 @@
         <v>0</v>
       </c>
       <c r="H102" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>412</v>
+        <v>312</v>
       </c>
       <c r="B103" t="s">
-        <v>413</v>
+        <v>313</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -16666,7 +16672,7 @@
         <v>0</v>
       </c>
       <c r="E103" t="s">
-        <v>414</v>
+        <v>732</v>
       </c>
       <c r="F103">
         <v>1</v>
@@ -16675,15 +16681,15 @@
         <v>0</v>
       </c>
       <c r="H103" t="s">
-        <v>415</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>416</v>
+        <v>315</v>
       </c>
       <c r="B104" t="s">
-        <v>417</v>
+        <v>316</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -16692,7 +16698,7 @@
         <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>418</v>
+        <v>733</v>
       </c>
       <c r="F104">
         <v>1</v>
@@ -16701,15 +16707,15 @@
         <v>0</v>
       </c>
       <c r="H104" t="s">
-        <v>419</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>420</v>
+        <v>318</v>
       </c>
       <c r="B105" t="s">
-        <v>421</v>
+        <v>319</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -16718,7 +16724,7 @@
         <v>0</v>
       </c>
       <c r="E105" t="s">
-        <v>422</v>
+        <v>734</v>
       </c>
       <c r="F105">
         <v>1</v>
@@ -16727,15 +16733,15 @@
         <v>0</v>
       </c>
       <c r="H105" t="s">
-        <v>423</v>
+        <v>320</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>424</v>
+        <v>321</v>
       </c>
       <c r="B106" t="s">
-        <v>425</v>
+        <v>322</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -16744,7 +16750,7 @@
         <v>0</v>
       </c>
       <c r="E106" t="s">
-        <v>426</v>
+        <v>735</v>
       </c>
       <c r="F106">
         <v>1</v>
@@ -16753,15 +16759,15 @@
         <v>0</v>
       </c>
       <c r="H106" t="s">
-        <v>427</v>
+        <v>323</v>
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>428</v>
+        <v>324</v>
       </c>
       <c r="B107" t="s">
-        <v>429</v>
+        <v>325</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -16770,7 +16776,7 @@
         <v>0</v>
       </c>
       <c r="E107" t="s">
-        <v>430</v>
+        <v>736</v>
       </c>
       <c r="F107">
         <v>1</v>
@@ -16779,15 +16785,15 @@
         <v>0</v>
       </c>
       <c r="H107" t="s">
-        <v>431</v>
+        <v>326</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>432</v>
+        <v>327</v>
       </c>
       <c r="B108" t="s">
-        <v>433</v>
+        <v>328</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -16796,7 +16802,7 @@
         <v>0</v>
       </c>
       <c r="E108" t="s">
-        <v>434</v>
+        <v>737</v>
       </c>
       <c r="F108">
         <v>1</v>
@@ -16805,15 +16811,15 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>435</v>
+        <v>329</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>436</v>
+        <v>330</v>
       </c>
       <c r="B109" t="s">
-        <v>437</v>
+        <v>331</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -16822,7 +16828,7 @@
         <v>0</v>
       </c>
       <c r="E109" t="s">
-        <v>438</v>
+        <v>738</v>
       </c>
       <c r="F109">
         <v>1</v>
@@ -16831,15 +16837,15 @@
         <v>0</v>
       </c>
       <c r="H109" t="s">
-        <v>439</v>
+        <v>332</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>440</v>
+        <v>333</v>
       </c>
       <c r="B110" t="s">
-        <v>441</v>
+        <v>334</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -16848,7 +16854,7 @@
         <v>0</v>
       </c>
       <c r="E110" t="s">
-        <v>442</v>
+        <v>739</v>
       </c>
       <c r="F110">
         <v>1</v>
@@ -16857,15 +16863,15 @@
         <v>0</v>
       </c>
       <c r="H110" t="s">
-        <v>443</v>
+        <v>335</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>444</v>
+        <v>336</v>
       </c>
       <c r="B111" t="s">
-        <v>445</v>
+        <v>337</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -16874,7 +16880,7 @@
         <v>0</v>
       </c>
       <c r="E111" t="s">
-        <v>446</v>
+        <v>740</v>
       </c>
       <c r="F111">
         <v>1</v>
@@ -16883,15 +16889,15 @@
         <v>0</v>
       </c>
       <c r="H111" t="s">
-        <v>447</v>
+        <v>338</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>448</v>
+        <v>339</v>
       </c>
       <c r="B112" t="s">
-        <v>449</v>
+        <v>340</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -16900,7 +16906,7 @@
         <v>0</v>
       </c>
       <c r="E112" t="s">
-        <v>450</v>
+        <v>741</v>
       </c>
       <c r="F112">
         <v>1</v>
@@ -16909,15 +16915,15 @@
         <v>0</v>
       </c>
       <c r="H112" t="s">
-        <v>451</v>
+        <v>341</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>452</v>
+        <v>342</v>
       </c>
       <c r="B113" t="s">
-        <v>453</v>
+        <v>343</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -16926,7 +16932,7 @@
         <v>0</v>
       </c>
       <c r="E113" t="s">
-        <v>454</v>
+        <v>742</v>
       </c>
       <c r="F113">
         <v>1</v>
@@ -16935,15 +16941,15 @@
         <v>0</v>
       </c>
       <c r="H113" t="s">
-        <v>455</v>
+        <v>344</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>456</v>
+        <v>345</v>
       </c>
       <c r="B114" t="s">
-        <v>457</v>
+        <v>346</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -16952,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="E114" t="s">
-        <v>458</v>
+        <v>743</v>
       </c>
       <c r="F114">
         <v>1</v>
@@ -16961,15 +16967,15 @@
         <v>0</v>
       </c>
       <c r="H114" t="s">
-        <v>459</v>
+        <v>347</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>460</v>
+        <v>348</v>
       </c>
       <c r="B115" t="s">
-        <v>461</v>
+        <v>349</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -16978,7 +16984,7 @@
         <v>0</v>
       </c>
       <c r="E115" t="s">
-        <v>462</v>
+        <v>744</v>
       </c>
       <c r="F115">
         <v>1</v>
@@ -16987,15 +16993,15 @@
         <v>0</v>
       </c>
       <c r="H115" t="s">
-        <v>463</v>
+        <v>350</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>464</v>
+        <v>351</v>
       </c>
       <c r="B116" t="s">
-        <v>465</v>
+        <v>352</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -17004,7 +17010,7 @@
         <v>0</v>
       </c>
       <c r="E116" t="s">
-        <v>466</v>
+        <v>745</v>
       </c>
       <c r="F116">
         <v>1</v>
@@ -17013,15 +17019,15 @@
         <v>0</v>
       </c>
       <c r="H116" t="s">
-        <v>467</v>
+        <v>353</v>
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>468</v>
+        <v>354</v>
       </c>
       <c r="B117" t="s">
-        <v>469</v>
+        <v>355</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -17030,7 +17036,7 @@
         <v>0</v>
       </c>
       <c r="E117" t="s">
-        <v>470</v>
+        <v>746</v>
       </c>
       <c r="F117">
         <v>1</v>
@@ -17039,15 +17045,15 @@
         <v>0</v>
       </c>
       <c r="H117" t="s">
-        <v>471</v>
+        <v>356</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
       <c r="B118" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -17056,7 +17062,7 @@
         <v>0</v>
       </c>
       <c r="E118" t="s">
-        <v>474</v>
+        <v>747</v>
       </c>
       <c r="F118">
         <v>1</v>
@@ -17065,15 +17071,15 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>475</v>
+        <v>359</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="B119" t="s">
-        <v>477</v>
+        <v>361</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -17082,7 +17088,7 @@
         <v>0</v>
       </c>
       <c r="E119" t="s">
-        <v>478</v>
+        <v>748</v>
       </c>
       <c r="F119">
         <v>1</v>
@@ -17091,15 +17097,15 @@
         <v>0</v>
       </c>
       <c r="H119" t="s">
-        <v>479</v>
+        <v>362</v>
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>480</v>
+        <v>363</v>
       </c>
       <c r="B120" t="s">
-        <v>481</v>
+        <v>364</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -17108,7 +17114,7 @@
         <v>0</v>
       </c>
       <c r="E120" t="s">
-        <v>482</v>
+        <v>749</v>
       </c>
       <c r="F120">
         <v>1</v>
@@ -17117,15 +17123,15 @@
         <v>0</v>
       </c>
       <c r="H120" t="s">
-        <v>483</v>
+        <v>365</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>484</v>
+        <v>366</v>
       </c>
       <c r="B121" t="s">
-        <v>485</v>
+        <v>367</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -17134,7 +17140,7 @@
         <v>0</v>
       </c>
       <c r="E121" t="s">
-        <v>486</v>
+        <v>750</v>
       </c>
       <c r="F121">
         <v>1</v>
@@ -17143,15 +17149,15 @@
         <v>0</v>
       </c>
       <c r="H121" t="s">
-        <v>487</v>
+        <v>368</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>488</v>
+        <v>369</v>
       </c>
       <c r="B122" t="s">
-        <v>489</v>
+        <v>370</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -17160,7 +17166,7 @@
         <v>0</v>
       </c>
       <c r="E122" t="s">
-        <v>490</v>
+        <v>751</v>
       </c>
       <c r="F122">
         <v>1</v>
@@ -17169,15 +17175,15 @@
         <v>0</v>
       </c>
       <c r="H122" t="s">
-        <v>491</v>
+        <v>371</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>492</v>
+        <v>372</v>
       </c>
       <c r="B123" t="s">
-        <v>493</v>
+        <v>373</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -17186,7 +17192,7 @@
         <v>0</v>
       </c>
       <c r="E123" t="s">
-        <v>494</v>
+        <v>752</v>
       </c>
       <c r="F123">
         <v>1</v>
@@ -17195,15 +17201,15 @@
         <v>0</v>
       </c>
       <c r="H123" t="s">
-        <v>495</v>
+        <v>374</v>
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>496</v>
+        <v>375</v>
       </c>
       <c r="B124" t="s">
-        <v>497</v>
+        <v>376</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -17212,7 +17218,7 @@
         <v>0</v>
       </c>
       <c r="E124" t="s">
-        <v>498</v>
+        <v>753</v>
       </c>
       <c r="F124">
         <v>1</v>
@@ -17221,15 +17227,15 @@
         <v>0</v>
       </c>
       <c r="H124" t="s">
-        <v>499</v>
+        <v>377</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>500</v>
+        <v>378</v>
       </c>
       <c r="B125" t="s">
-        <v>501</v>
+        <v>379</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -17238,7 +17244,7 @@
         <v>0</v>
       </c>
       <c r="E125" t="s">
-        <v>502</v>
+        <v>754</v>
       </c>
       <c r="F125">
         <v>1</v>
@@ -17247,15 +17253,15 @@
         <v>0</v>
       </c>
       <c r="H125" t="s">
-        <v>503</v>
+        <v>380</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>504</v>
+        <v>381</v>
       </c>
       <c r="B126" t="s">
-        <v>505</v>
+        <v>382</v>
       </c>
       <c r="C126">
         <v>0</v>
@@ -17264,7 +17270,7 @@
         <v>0</v>
       </c>
       <c r="E126" t="s">
-        <v>506</v>
+        <v>755</v>
       </c>
       <c r="F126">
         <v>0</v>
@@ -17273,15 +17279,15 @@
         <v>0</v>
       </c>
       <c r="H126" t="s">
-        <v>507</v>
+        <v>383</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>508</v>
+        <v>384</v>
       </c>
       <c r="B127" t="s">
-        <v>509</v>
+        <v>385</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -17290,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="E127" t="s">
-        <v>510</v>
+        <v>756</v>
       </c>
       <c r="F127">
         <v>1</v>
@@ -17299,15 +17305,15 @@
         <v>0</v>
       </c>
       <c r="H127" t="s">
-        <v>511</v>
+        <v>386</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>512</v>
+        <v>387</v>
       </c>
       <c r="B128" t="s">
-        <v>513</v>
+        <v>388</v>
       </c>
       <c r="C128">
         <v>0</v>
@@ -17316,7 +17322,7 @@
         <v>1</v>
       </c>
       <c r="E128" t="s">
-        <v>514</v>
+        <v>757</v>
       </c>
       <c r="F128">
         <v>1</v>
@@ -17325,15 +17331,15 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>515</v>
+        <v>389</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>516</v>
+        <v>390</v>
       </c>
       <c r="B129" t="s">
-        <v>517</v>
+        <v>391</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -17342,7 +17348,7 @@
         <v>0</v>
       </c>
       <c r="E129" t="s">
-        <v>518</v>
+        <v>758</v>
       </c>
       <c r="F129">
         <v>1</v>
@@ -17351,15 +17357,15 @@
         <v>0</v>
       </c>
       <c r="H129" t="s">
-        <v>519</v>
+        <v>392</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>520</v>
+        <v>393</v>
       </c>
       <c r="B130" t="s">
-        <v>521</v>
+        <v>394</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -17368,7 +17374,7 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>522</v>
+        <v>759</v>
       </c>
       <c r="F130">
         <v>1</v>
@@ -17377,15 +17383,15 @@
         <v>0</v>
       </c>
       <c r="H130" t="s">
-        <v>523</v>
+        <v>395</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>524</v>
+        <v>396</v>
       </c>
       <c r="B131" t="s">
-        <v>525</v>
+        <v>397</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -17394,7 +17400,7 @@
         <v>0</v>
       </c>
       <c r="E131" t="s">
-        <v>526</v>
+        <v>760</v>
       </c>
       <c r="F131">
         <v>1</v>
@@ -17403,15 +17409,15 @@
         <v>0</v>
       </c>
       <c r="H131" t="s">
-        <v>527</v>
+        <v>398</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>528</v>
+        <v>399</v>
       </c>
       <c r="B132" t="s">
-        <v>529</v>
+        <v>400</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -17420,7 +17426,7 @@
         <v>0</v>
       </c>
       <c r="E132" t="s">
-        <v>530</v>
+        <v>761</v>
       </c>
       <c r="F132">
         <v>1</v>
@@ -17429,15 +17435,15 @@
         <v>0</v>
       </c>
       <c r="H132" t="s">
-        <v>531</v>
+        <v>401</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>532</v>
+        <v>402</v>
       </c>
       <c r="B133" t="s">
-        <v>533</v>
+        <v>403</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -17446,7 +17452,7 @@
         <v>0</v>
       </c>
       <c r="E133" t="s">
-        <v>534</v>
+        <v>762</v>
       </c>
       <c r="F133">
         <v>1</v>
@@ -17455,15 +17461,15 @@
         <v>0</v>
       </c>
       <c r="H133" t="s">
-        <v>535</v>
+        <v>404</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>536</v>
+        <v>405</v>
       </c>
       <c r="B134" t="s">
-        <v>537</v>
+        <v>406</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -17472,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="E134" t="s">
-        <v>538</v>
+        <v>763</v>
       </c>
       <c r="F134">
         <v>1</v>
@@ -17481,15 +17487,15 @@
         <v>0</v>
       </c>
       <c r="H134" t="s">
-        <v>539</v>
+        <v>407</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>540</v>
+        <v>408</v>
       </c>
       <c r="B135" t="s">
-        <v>541</v>
+        <v>409</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -17498,7 +17504,7 @@
         <v>0</v>
       </c>
       <c r="E135" t="s">
-        <v>542</v>
+        <v>764</v>
       </c>
       <c r="F135">
         <v>1</v>
@@ -17507,15 +17513,15 @@
         <v>0</v>
       </c>
       <c r="H135" t="s">
-        <v>543</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>544</v>
+        <v>411</v>
       </c>
       <c r="B136" t="s">
-        <v>545</v>
+        <v>412</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -17524,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="E136" t="s">
-        <v>546</v>
+        <v>765</v>
       </c>
       <c r="F136">
         <v>1</v>
@@ -17533,15 +17539,15 @@
         <v>0</v>
       </c>
       <c r="H136" t="s">
-        <v>547</v>
+        <v>413</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>548</v>
+        <v>414</v>
       </c>
       <c r="B137" t="s">
-        <v>549</v>
+        <v>415</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -17550,7 +17556,7 @@
         <v>0</v>
       </c>
       <c r="E137" t="s">
-        <v>550</v>
+        <v>766</v>
       </c>
       <c r="F137">
         <v>1</v>
@@ -17559,15 +17565,15 @@
         <v>0</v>
       </c>
       <c r="H137" t="s">
-        <v>551</v>
+        <v>416</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>552</v>
+        <v>417</v>
       </c>
       <c r="B138" t="s">
-        <v>553</v>
+        <v>418</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -17576,7 +17582,7 @@
         <v>0</v>
       </c>
       <c r="E138" t="s">
-        <v>554</v>
+        <v>767</v>
       </c>
       <c r="F138">
         <v>1</v>
@@ -17585,15 +17591,15 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>555</v>
+        <v>419</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>556</v>
+        <v>420</v>
       </c>
       <c r="B139" t="s">
-        <v>557</v>
+        <v>421</v>
       </c>
       <c r="C139">
         <v>0</v>
@@ -17602,7 +17608,7 @@
         <v>0</v>
       </c>
       <c r="E139" t="s">
-        <v>558</v>
+        <v>768</v>
       </c>
       <c r="F139">
         <v>0</v>
@@ -17611,15 +17617,15 @@
         <v>0</v>
       </c>
       <c r="H139" t="s">
-        <v>559</v>
+        <v>422</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>560</v>
+        <v>423</v>
       </c>
       <c r="B140" t="s">
-        <v>561</v>
+        <v>424</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -17628,7 +17634,7 @@
         <v>0</v>
       </c>
       <c r="E140" t="s">
-        <v>562</v>
+        <v>769</v>
       </c>
       <c r="F140">
         <v>1</v>
@@ -17637,15 +17643,15 @@
         <v>0</v>
       </c>
       <c r="H140" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>564</v>
+        <v>426</v>
       </c>
       <c r="B141" t="s">
-        <v>565</v>
+        <v>427</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -17654,7 +17660,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="s">
-        <v>566</v>
+        <v>770</v>
       </c>
       <c r="F141">
         <v>1</v>
@@ -17663,15 +17669,15 @@
         <v>0</v>
       </c>
       <c r="H141" t="s">
-        <v>567</v>
+        <v>428</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>568</v>
+        <v>429</v>
       </c>
       <c r="B142" t="s">
-        <v>569</v>
+        <v>430</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -17680,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="E142" t="s">
-        <v>570</v>
+        <v>771</v>
       </c>
       <c r="F142">
         <v>1</v>
@@ -17689,15 +17695,15 @@
         <v>0</v>
       </c>
       <c r="H142" t="s">
-        <v>571</v>
+        <v>431</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>572</v>
+        <v>432</v>
       </c>
       <c r="B143" t="s">
-        <v>573</v>
+        <v>433</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -17706,7 +17712,7 @@
         <v>0</v>
       </c>
       <c r="E143" t="s">
-        <v>574</v>
+        <v>772</v>
       </c>
       <c r="F143">
         <v>1</v>
@@ -17715,15 +17721,15 @@
         <v>0</v>
       </c>
       <c r="H143" t="s">
-        <v>575</v>
+        <v>434</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>576</v>
+        <v>435</v>
       </c>
       <c r="B144" t="s">
-        <v>577</v>
+        <v>436</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -17732,7 +17738,7 @@
         <v>0</v>
       </c>
       <c r="E144" t="s">
-        <v>578</v>
+        <v>773</v>
       </c>
       <c r="F144">
         <v>1</v>
@@ -17741,15 +17747,15 @@
         <v>0</v>
       </c>
       <c r="H144" t="s">
-        <v>579</v>
+        <v>437</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>580</v>
+        <v>438</v>
       </c>
       <c r="B145" t="s">
-        <v>581</v>
+        <v>439</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -17758,7 +17764,7 @@
         <v>0</v>
       </c>
       <c r="E145" t="s">
-        <v>582</v>
+        <v>774</v>
       </c>
       <c r="F145">
         <v>1</v>
@@ -17767,15 +17773,15 @@
         <v>0</v>
       </c>
       <c r="H145" t="s">
-        <v>583</v>
+        <v>440</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>584</v>
+        <v>441</v>
       </c>
       <c r="B146" t="s">
-        <v>585</v>
+        <v>442</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -17784,7 +17790,7 @@
         <v>0</v>
       </c>
       <c r="E146" t="s">
-        <v>586</v>
+        <v>775</v>
       </c>
       <c r="F146">
         <v>1</v>
@@ -17793,15 +17799,15 @@
         <v>0</v>
       </c>
       <c r="H146" t="s">
-        <v>587</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>588</v>
+        <v>444</v>
       </c>
       <c r="B147" t="s">
-        <v>345</v>
+        <v>261</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -17810,7 +17816,7 @@
         <v>0</v>
       </c>
       <c r="E147" t="s">
-        <v>589</v>
+        <v>716</v>
       </c>
       <c r="F147">
         <v>1</v>
@@ -17819,15 +17825,15 @@
         <v>0</v>
       </c>
       <c r="H147" t="s">
-        <v>590</v>
+        <v>445</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>591</v>
+        <v>446</v>
       </c>
       <c r="B148" t="s">
-        <v>592</v>
+        <v>447</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -17836,7 +17842,7 @@
         <v>0</v>
       </c>
       <c r="E148" t="s">
-        <v>593</v>
+        <v>776</v>
       </c>
       <c r="F148">
         <v>1</v>
@@ -17845,15 +17851,15 @@
         <v>0</v>
       </c>
       <c r="H148" t="s">
-        <v>594</v>
+        <v>448</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>595</v>
+        <v>449</v>
       </c>
       <c r="B149" t="s">
-        <v>596</v>
+        <v>450</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -17862,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="E149" t="s">
-        <v>597</v>
+        <v>777</v>
       </c>
       <c r="F149">
         <v>1</v>
@@ -17871,15 +17877,15 @@
         <v>0</v>
       </c>
       <c r="H149" t="s">
-        <v>598</v>
+        <v>451</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>599</v>
+        <v>452</v>
       </c>
       <c r="B150" t="s">
-        <v>600</v>
+        <v>453</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -17888,7 +17894,7 @@
         <v>0</v>
       </c>
       <c r="E150" t="s">
-        <v>601</v>
+        <v>778</v>
       </c>
       <c r="F150">
         <v>1</v>
@@ -17897,15 +17903,15 @@
         <v>0</v>
       </c>
       <c r="H150" t="s">
-        <v>602</v>
+        <v>454</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>603</v>
+        <v>455</v>
       </c>
       <c r="B151" t="s">
-        <v>604</v>
+        <v>456</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -17914,7 +17920,7 @@
         <v>0</v>
       </c>
       <c r="E151" t="s">
-        <v>605</v>
+        <v>779</v>
       </c>
       <c r="F151">
         <v>1</v>
@@ -17923,15 +17929,15 @@
         <v>0</v>
       </c>
       <c r="H151" t="s">
-        <v>606</v>
+        <v>457</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>607</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s">
-        <v>608</v>
+        <v>459</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -17940,7 +17946,7 @@
         <v>0</v>
       </c>
       <c r="E152" t="s">
-        <v>609</v>
+        <v>780</v>
       </c>
       <c r="F152">
         <v>1</v>
@@ -17949,15 +17955,15 @@
         <v>0</v>
       </c>
       <c r="H152" t="s">
-        <v>610</v>
+        <v>460</v>
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>611</v>
+        <v>461</v>
       </c>
       <c r="B153" t="s">
-        <v>612</v>
+        <v>462</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -17966,7 +17972,7 @@
         <v>0</v>
       </c>
       <c r="E153" t="s">
-        <v>613</v>
+        <v>781</v>
       </c>
       <c r="F153">
         <v>1</v>
@@ -17975,15 +17981,15 @@
         <v>0</v>
       </c>
       <c r="H153" t="s">
-        <v>614</v>
+        <v>463</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>615</v>
+        <v>464</v>
       </c>
       <c r="B154" t="s">
-        <v>616</v>
+        <v>465</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -17992,7 +17998,7 @@
         <v>0</v>
       </c>
       <c r="E154" t="s">
-        <v>617</v>
+        <v>782</v>
       </c>
       <c r="F154">
         <v>1</v>
@@ -18001,15 +18007,15 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>618</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>619</v>
+        <v>467</v>
       </c>
       <c r="B155" t="s">
-        <v>620</v>
+        <v>468</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -18018,7 +18024,7 @@
         <v>0</v>
       </c>
       <c r="E155" t="s">
-        <v>621</v>
+        <v>783</v>
       </c>
       <c r="F155">
         <v>1</v>
@@ -18027,15 +18033,15 @@
         <v>0</v>
       </c>
       <c r="H155" t="s">
-        <v>622</v>
+        <v>469</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>623</v>
+        <v>470</v>
       </c>
       <c r="B156" t="s">
-        <v>624</v>
+        <v>471</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -18044,7 +18050,7 @@
         <v>0</v>
       </c>
       <c r="E156" t="s">
-        <v>625</v>
+        <v>784</v>
       </c>
       <c r="F156">
         <v>1</v>
@@ -18053,15 +18059,15 @@
         <v>0</v>
       </c>
       <c r="H156" t="s">
-        <v>626</v>
+        <v>472</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>627</v>
+        <v>473</v>
       </c>
       <c r="B157" t="s">
-        <v>628</v>
+        <v>474</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -18070,7 +18076,7 @@
         <v>0</v>
       </c>
       <c r="E157" t="s">
-        <v>629</v>
+        <v>785</v>
       </c>
       <c r="F157">
         <v>1</v>
@@ -18079,15 +18085,15 @@
         <v>0</v>
       </c>
       <c r="H157" t="s">
-        <v>630</v>
+        <v>475</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>631</v>
+        <v>476</v>
       </c>
       <c r="B158" t="s">
-        <v>632</v>
+        <v>477</v>
       </c>
       <c r="C158">
         <v>1</v>
@@ -18096,7 +18102,7 @@
         <v>0</v>
       </c>
       <c r="E158" t="s">
-        <v>633</v>
+        <v>786</v>
       </c>
       <c r="F158">
         <v>1</v>
@@ -18105,15 +18111,15 @@
         <v>0</v>
       </c>
       <c r="H158" t="s">
-        <v>634</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>635</v>
+        <v>479</v>
       </c>
       <c r="B159" t="s">
-        <v>636</v>
+        <v>480</v>
       </c>
       <c r="C159">
         <v>1</v>
@@ -18122,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="E159" t="s">
-        <v>637</v>
+        <v>787</v>
       </c>
       <c r="F159">
         <v>1</v>
@@ -18131,15 +18137,15 @@
         <v>0</v>
       </c>
       <c r="H159" t="s">
-        <v>638</v>
+        <v>481</v>
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>639</v>
+        <v>482</v>
       </c>
       <c r="B160" t="s">
-        <v>640</v>
+        <v>483</v>
       </c>
       <c r="C160">
         <v>1</v>
@@ -18148,7 +18154,7 @@
         <v>0</v>
       </c>
       <c r="E160" t="s">
-        <v>641</v>
+        <v>788</v>
       </c>
       <c r="F160">
         <v>1</v>
@@ -18157,15 +18163,15 @@
         <v>0</v>
       </c>
       <c r="H160" t="s">
-        <v>642</v>
+        <v>484</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>643</v>
+        <v>485</v>
       </c>
       <c r="B161" t="s">
-        <v>644</v>
+        <v>486</v>
       </c>
       <c r="C161">
         <v>1</v>
@@ -18174,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="E161" t="s">
-        <v>645</v>
+        <v>789</v>
       </c>
       <c r="F161">
         <v>1</v>
@@ -18183,15 +18189,15 @@
         <v>0</v>
       </c>
       <c r="H161" t="s">
-        <v>646</v>
+        <v>487</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>647</v>
+        <v>488</v>
       </c>
       <c r="B162" t="s">
-        <v>648</v>
+        <v>489</v>
       </c>
       <c r="C162">
         <v>1</v>
@@ -18200,7 +18206,7 @@
         <v>0</v>
       </c>
       <c r="E162" t="s">
-        <v>649</v>
+        <v>790</v>
       </c>
       <c r="F162">
         <v>1</v>
@@ -18209,15 +18215,15 @@
         <v>0</v>
       </c>
       <c r="H162" t="s">
-        <v>650</v>
+        <v>490</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>651</v>
+        <v>491</v>
       </c>
       <c r="B163" t="s">
-        <v>652</v>
+        <v>492</v>
       </c>
       <c r="C163">
         <v>1</v>
@@ -18226,7 +18232,7 @@
         <v>0</v>
       </c>
       <c r="E163" t="s">
-        <v>653</v>
+        <v>791</v>
       </c>
       <c r="F163">
         <v>1</v>
@@ -18235,15 +18241,15 @@
         <v>0</v>
       </c>
       <c r="H163" t="s">
-        <v>654</v>
+        <v>493</v>
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>655</v>
+        <v>494</v>
       </c>
       <c r="B164" t="s">
-        <v>656</v>
+        <v>495</v>
       </c>
       <c r="C164">
         <v>1</v>
@@ -18252,7 +18258,7 @@
         <v>0</v>
       </c>
       <c r="E164" t="s">
-        <v>657</v>
+        <v>792</v>
       </c>
       <c r="F164">
         <v>1</v>
@@ -18261,15 +18267,15 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>658</v>
+        <v>496</v>
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>659</v>
+        <v>497</v>
       </c>
       <c r="B165" t="s">
-        <v>660</v>
+        <v>498</v>
       </c>
       <c r="C165">
         <v>1</v>
@@ -18278,7 +18284,7 @@
         <v>0</v>
       </c>
       <c r="E165" t="s">
-        <v>661</v>
+        <v>793</v>
       </c>
       <c r="F165">
         <v>1</v>
@@ -18287,15 +18293,15 @@
         <v>0</v>
       </c>
       <c r="H165" t="s">
-        <v>662</v>
+        <v>499</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>663</v>
+        <v>500</v>
       </c>
       <c r="B166" t="s">
-        <v>664</v>
+        <v>501</v>
       </c>
       <c r="C166">
         <v>1</v>
@@ -18304,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="E166" t="s">
-        <v>665</v>
+        <v>794</v>
       </c>
       <c r="F166">
         <v>1</v>
@@ -18313,15 +18319,15 @@
         <v>0</v>
       </c>
       <c r="H166" t="s">
-        <v>666</v>
+        <v>502</v>
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>667</v>
+        <v>503</v>
       </c>
       <c r="B167" t="s">
-        <v>668</v>
+        <v>504</v>
       </c>
       <c r="C167">
         <v>1</v>
@@ -18330,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="E167" t="s">
-        <v>669</v>
+        <v>795</v>
       </c>
       <c r="F167">
         <v>1</v>
@@ -18339,15 +18345,15 @@
         <v>0</v>
       </c>
       <c r="H167" t="s">
-        <v>670</v>
+        <v>505</v>
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>671</v>
+        <v>506</v>
       </c>
       <c r="B168" t="s">
-        <v>672</v>
+        <v>507</v>
       </c>
       <c r="C168">
         <v>1</v>
@@ -18356,7 +18362,7 @@
         <v>0</v>
       </c>
       <c r="E168" t="s">
-        <v>673</v>
+        <v>796</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -18365,15 +18371,15 @@
         <v>0</v>
       </c>
       <c r="H168" t="s">
-        <v>674</v>
+        <v>508</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>675</v>
+        <v>509</v>
       </c>
       <c r="B169" t="s">
-        <v>676</v>
+        <v>510</v>
       </c>
       <c r="C169">
         <v>1</v>
@@ -18382,7 +18388,7 @@
         <v>0</v>
       </c>
       <c r="E169" t="s">
-        <v>677</v>
+        <v>797</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -18391,15 +18397,15 @@
         <v>0</v>
       </c>
       <c r="H169" t="s">
-        <v>678</v>
+        <v>511</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>679</v>
+        <v>512</v>
       </c>
       <c r="B170" t="s">
-        <v>680</v>
+        <v>513</v>
       </c>
       <c r="C170">
         <v>1</v>
@@ -18408,7 +18414,7 @@
         <v>0</v>
       </c>
       <c r="E170" t="s">
-        <v>58</v>
+        <v>644</v>
       </c>
       <c r="F170">
         <v>1</v>
@@ -18417,15 +18423,15 @@
         <v>0</v>
       </c>
       <c r="H170" t="s">
-        <v>681</v>
+        <v>514</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>682</v>
+        <v>515</v>
       </c>
       <c r="B171" t="s">
-        <v>683</v>
+        <v>516</v>
       </c>
       <c r="C171">
         <v>1</v>
@@ -18434,7 +18440,7 @@
         <v>0</v>
       </c>
       <c r="E171" t="s">
-        <v>684</v>
+        <v>798</v>
       </c>
       <c r="F171">
         <v>1</v>
@@ -18443,15 +18449,15 @@
         <v>0</v>
       </c>
       <c r="H171" t="s">
-        <v>685</v>
+        <v>517</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>686</v>
+        <v>518</v>
       </c>
       <c r="B172" t="s">
-        <v>687</v>
+        <v>519</v>
       </c>
       <c r="C172">
         <v>1</v>
@@ -18460,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="E172" t="s">
-        <v>688</v>
+        <v>799</v>
       </c>
       <c r="F172">
         <v>1</v>
@@ -18469,15 +18475,15 @@
         <v>0</v>
       </c>
       <c r="H172" t="s">
-        <v>689</v>
+        <v>520</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>690</v>
+        <v>521</v>
       </c>
       <c r="B173" t="s">
-        <v>691</v>
+        <v>522</v>
       </c>
       <c r="C173">
         <v>1</v>
@@ -18486,7 +18492,7 @@
         <v>0</v>
       </c>
       <c r="E173" t="s">
-        <v>692</v>
+        <v>800</v>
       </c>
       <c r="F173">
         <v>1</v>
@@ -18495,15 +18501,15 @@
         <v>0</v>
       </c>
       <c r="H173" t="s">
-        <v>693</v>
+        <v>523</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>694</v>
+        <v>524</v>
       </c>
       <c r="B174" t="s">
-        <v>695</v>
+        <v>525</v>
       </c>
       <c r="C174">
         <v>1</v>
@@ -18512,7 +18518,7 @@
         <v>0</v>
       </c>
       <c r="E174" t="s">
-        <v>696</v>
+        <v>801</v>
       </c>
       <c r="F174">
         <v>1</v>
@@ -18521,15 +18527,15 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>697</v>
+        <v>526</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>698</v>
+        <v>527</v>
       </c>
       <c r="B175" t="s">
-        <v>699</v>
+        <v>528</v>
       </c>
       <c r="C175">
         <v>1</v>
@@ -18538,7 +18544,7 @@
         <v>0</v>
       </c>
       <c r="E175" t="s">
-        <v>700</v>
+        <v>802</v>
       </c>
       <c r="F175">
         <v>1</v>
@@ -18547,15 +18553,15 @@
         <v>0</v>
       </c>
       <c r="H175" t="s">
-        <v>701</v>
+        <v>529</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>702</v>
+        <v>530</v>
       </c>
       <c r="B176" t="s">
-        <v>703</v>
+        <v>531</v>
       </c>
       <c r="C176">
         <v>1</v>
@@ -18564,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="E176" t="s">
-        <v>704</v>
+        <v>803</v>
       </c>
       <c r="F176">
         <v>1</v>
@@ -18573,15 +18579,15 @@
         <v>0</v>
       </c>
       <c r="H176" t="s">
-        <v>705</v>
+        <v>532</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>706</v>
+        <v>533</v>
       </c>
       <c r="B177" t="s">
-        <v>707</v>
+        <v>534</v>
       </c>
       <c r="C177">
         <v>1</v>
@@ -18590,7 +18596,7 @@
         <v>0</v>
       </c>
       <c r="E177" t="s">
-        <v>708</v>
+        <v>804</v>
       </c>
       <c r="F177">
         <v>1</v>
@@ -18599,15 +18605,15 @@
         <v>0</v>
       </c>
       <c r="H177" t="s">
-        <v>709</v>
+        <v>535</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>710</v>
+        <v>536</v>
       </c>
       <c r="B178" t="s">
-        <v>711</v>
+        <v>537</v>
       </c>
       <c r="C178">
         <v>1</v>
@@ -18616,7 +18622,7 @@
         <v>0</v>
       </c>
       <c r="E178" t="s">
-        <v>712</v>
+        <v>805</v>
       </c>
       <c r="F178">
         <v>1</v>
@@ -18625,15 +18631,15 @@
         <v>0</v>
       </c>
       <c r="H178" t="s">
-        <v>713</v>
+        <v>538</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>714</v>
+        <v>539</v>
       </c>
       <c r="B179" t="s">
-        <v>715</v>
+        <v>540</v>
       </c>
       <c r="C179">
         <v>1</v>
@@ -18642,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="E179" t="s">
-        <v>716</v>
+        <v>806</v>
       </c>
       <c r="F179">
         <v>1</v>
@@ -18651,15 +18657,15 @@
         <v>0</v>
       </c>
       <c r="H179" t="s">
-        <v>717</v>
+        <v>541</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>718</v>
+        <v>542</v>
       </c>
       <c r="B180" t="s">
-        <v>719</v>
+        <v>543</v>
       </c>
       <c r="C180">
         <v>1</v>
@@ -18668,7 +18674,7 @@
         <v>0</v>
       </c>
       <c r="E180" t="s">
-        <v>720</v>
+        <v>807</v>
       </c>
       <c r="F180">
         <v>1</v>
@@ -18677,15 +18683,15 @@
         <v>0</v>
       </c>
       <c r="H180" t="s">
-        <v>721</v>
+        <v>544</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>722</v>
+        <v>545</v>
       </c>
       <c r="B181" t="s">
-        <v>723</v>
+        <v>546</v>
       </c>
       <c r="C181">
         <v>1</v>
@@ -18694,7 +18700,7 @@
         <v>0</v>
       </c>
       <c r="E181" t="s">
-        <v>724</v>
+        <v>808</v>
       </c>
       <c r="F181">
         <v>1</v>
@@ -18703,15 +18709,15 @@
         <v>0</v>
       </c>
       <c r="H181" t="s">
-        <v>725</v>
+        <v>547</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>726</v>
+        <v>548</v>
       </c>
       <c r="B182" t="s">
-        <v>727</v>
+        <v>549</v>
       </c>
       <c r="C182">
         <v>1</v>
@@ -18720,7 +18726,7 @@
         <v>0</v>
       </c>
       <c r="E182" t="s">
-        <v>728</v>
+        <v>809</v>
       </c>
       <c r="F182">
         <v>1</v>
@@ -18729,15 +18735,15 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>729</v>
+        <v>550</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>730</v>
+        <v>551</v>
       </c>
       <c r="B183" t="s">
-        <v>731</v>
+        <v>552</v>
       </c>
       <c r="C183">
         <v>1</v>
@@ -18746,7 +18752,7 @@
         <v>0</v>
       </c>
       <c r="E183" t="s">
-        <v>732</v>
+        <v>810</v>
       </c>
       <c r="F183">
         <v>1</v>
@@ -18755,15 +18761,15 @@
         <v>0</v>
       </c>
       <c r="H183" t="s">
-        <v>733</v>
+        <v>553</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>734</v>
+        <v>554</v>
       </c>
       <c r="B184" t="s">
-        <v>735</v>
+        <v>555</v>
       </c>
       <c r="C184">
         <v>1</v>
@@ -18772,7 +18778,7 @@
         <v>0</v>
       </c>
       <c r="E184" t="s">
-        <v>736</v>
+        <v>811</v>
       </c>
       <c r="F184">
         <v>1</v>
@@ -18781,15 +18787,15 @@
         <v>0</v>
       </c>
       <c r="H184" t="s">
-        <v>737</v>
+        <v>556</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>738</v>
+        <v>557</v>
       </c>
       <c r="B185" t="s">
-        <v>739</v>
+        <v>558</v>
       </c>
       <c r="C185">
         <v>1</v>
@@ -18798,7 +18804,7 @@
         <v>0</v>
       </c>
       <c r="E185" t="s">
-        <v>740</v>
+        <v>812</v>
       </c>
       <c r="F185">
         <v>1</v>
@@ -18807,15 +18813,15 @@
         <v>0</v>
       </c>
       <c r="H185" t="s">
-        <v>741</v>
+        <v>559</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>742</v>
+        <v>560</v>
       </c>
       <c r="B186" t="s">
-        <v>743</v>
+        <v>561</v>
       </c>
       <c r="C186">
         <v>1</v>
@@ -18824,7 +18830,7 @@
         <v>0</v>
       </c>
       <c r="E186" t="s">
-        <v>744</v>
+        <v>813</v>
       </c>
       <c r="F186">
         <v>1</v>
@@ -18833,15 +18839,15 @@
         <v>0</v>
       </c>
       <c r="H186" t="s">
-        <v>745</v>
+        <v>562</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>746</v>
+        <v>563</v>
       </c>
       <c r="B187" t="s">
-        <v>747</v>
+        <v>564</v>
       </c>
       <c r="C187">
         <v>1</v>
@@ -18850,7 +18856,7 @@
         <v>0</v>
       </c>
       <c r="E187" t="s">
-        <v>748</v>
+        <v>814</v>
       </c>
       <c r="F187">
         <v>1</v>
@@ -18859,15 +18865,15 @@
         <v>0</v>
       </c>
       <c r="H187" t="s">
-        <v>749</v>
+        <v>565</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>750</v>
+        <v>566</v>
       </c>
       <c r="B188" t="s">
-        <v>751</v>
+        <v>567</v>
       </c>
       <c r="C188">
         <v>1</v>
@@ -18876,7 +18882,7 @@
         <v>0</v>
       </c>
       <c r="E188" t="s">
-        <v>752</v>
+        <v>815</v>
       </c>
       <c r="F188">
         <v>1</v>
@@ -18885,15 +18891,15 @@
         <v>0</v>
       </c>
       <c r="H188" t="s">
-        <v>753</v>
+        <v>568</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>754</v>
+        <v>569</v>
       </c>
       <c r="B189" t="s">
-        <v>755</v>
+        <v>570</v>
       </c>
       <c r="C189">
         <v>1</v>
@@ -18902,7 +18908,7 @@
         <v>0</v>
       </c>
       <c r="E189" t="s">
-        <v>756</v>
+        <v>816</v>
       </c>
       <c r="F189">
         <v>1</v>
@@ -18911,15 +18917,15 @@
         <v>0</v>
       </c>
       <c r="H189" t="s">
-        <v>757</v>
+        <v>571</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>758</v>
+        <v>572</v>
       </c>
       <c r="B190" t="s">
-        <v>759</v>
+        <v>573</v>
       </c>
       <c r="C190">
         <v>1</v>
@@ -18928,7 +18934,7 @@
         <v>0</v>
       </c>
       <c r="E190" t="s">
-        <v>760</v>
+        <v>817</v>
       </c>
       <c r="F190">
         <v>1</v>
@@ -18937,15 +18943,15 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>761</v>
+        <v>574</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>762</v>
+        <v>575</v>
       </c>
       <c r="B191" t="s">
-        <v>763</v>
+        <v>576</v>
       </c>
       <c r="C191">
         <v>1</v>
@@ -18954,7 +18960,7 @@
         <v>0</v>
       </c>
       <c r="E191" t="s">
-        <v>764</v>
+        <v>818</v>
       </c>
       <c r="F191">
         <v>1</v>
@@ -18963,15 +18969,15 @@
         <v>0</v>
       </c>
       <c r="H191" t="s">
-        <v>765</v>
+        <v>577</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>766</v>
+        <v>578</v>
       </c>
       <c r="B192" t="s">
-        <v>767</v>
+        <v>579</v>
       </c>
       <c r="C192">
         <v>1</v>
@@ -18980,7 +18986,7 @@
         <v>0</v>
       </c>
       <c r="E192" t="s">
-        <v>768</v>
+        <v>819</v>
       </c>
       <c r="F192">
         <v>1</v>
@@ -18989,15 +18995,15 @@
         <v>0</v>
       </c>
       <c r="H192" t="s">
-        <v>769</v>
+        <v>580</v>
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>770</v>
+        <v>581</v>
       </c>
       <c r="B193" t="s">
-        <v>771</v>
+        <v>582</v>
       </c>
       <c r="C193">
         <v>0</v>
@@ -19006,7 +19012,7 @@
         <v>0</v>
       </c>
       <c r="E193" t="s">
-        <v>772</v>
+        <v>820</v>
       </c>
       <c r="F193">
         <v>0</v>
@@ -19015,15 +19021,15 @@
         <v>0</v>
       </c>
       <c r="H193" t="s">
-        <v>773</v>
+        <v>583</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>774</v>
+        <v>584</v>
       </c>
       <c r="B194" t="s">
-        <v>775</v>
+        <v>585</v>
       </c>
       <c r="C194">
         <v>1</v>
@@ -19032,7 +19038,7 @@
         <v>0</v>
       </c>
       <c r="E194" t="s">
-        <v>776</v>
+        <v>821</v>
       </c>
       <c r="F194">
         <v>1</v>
@@ -19041,15 +19047,15 @@
         <v>0</v>
       </c>
       <c r="H194" t="s">
-        <v>777</v>
+        <v>586</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>778</v>
+        <v>587</v>
       </c>
       <c r="B195" t="s">
-        <v>779</v>
+        <v>588</v>
       </c>
       <c r="C195">
         <v>1</v>
@@ -19058,7 +19064,7 @@
         <v>0</v>
       </c>
       <c r="E195" t="s">
-        <v>780</v>
+        <v>822</v>
       </c>
       <c r="F195">
         <v>1</v>
@@ -19067,15 +19073,15 @@
         <v>0</v>
       </c>
       <c r="H195" t="s">
-        <v>781</v>
+        <v>589</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>782</v>
+        <v>590</v>
       </c>
       <c r="B196" t="s">
-        <v>783</v>
+        <v>591</v>
       </c>
       <c r="C196">
         <v>1</v>
@@ -19084,7 +19090,7 @@
         <v>0</v>
       </c>
       <c r="E196" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="F196">
         <v>1</v>
@@ -19093,15 +19099,15 @@
         <v>0</v>
       </c>
       <c r="H196" t="s">
-        <v>785</v>
+        <v>592</v>
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>786</v>
+        <v>593</v>
       </c>
       <c r="B197" t="s">
-        <v>787</v>
+        <v>594</v>
       </c>
       <c r="C197">
         <v>1</v>
@@ -19110,7 +19116,7 @@
         <v>0</v>
       </c>
       <c r="E197" t="s">
-        <v>788</v>
+        <v>824</v>
       </c>
       <c r="F197">
         <v>1</v>
@@ -19119,15 +19125,15 @@
         <v>0</v>
       </c>
       <c r="H197" t="s">
-        <v>789</v>
+        <v>595</v>
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>790</v>
+        <v>596</v>
       </c>
       <c r="B198" t="s">
-        <v>791</v>
+        <v>597</v>
       </c>
       <c r="C198">
         <v>1</v>
@@ -19136,7 +19142,7 @@
         <v>0</v>
       </c>
       <c r="E198" t="s">
-        <v>792</v>
+        <v>825</v>
       </c>
       <c r="F198">
         <v>1</v>
@@ -19145,15 +19151,15 @@
         <v>0</v>
       </c>
       <c r="H198" t="s">
-        <v>793</v>
+        <v>598</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>794</v>
+        <v>599</v>
       </c>
       <c r="B199" t="s">
-        <v>795</v>
+        <v>600</v>
       </c>
       <c r="C199">
         <v>1</v>
@@ -19162,7 +19168,7 @@
         <v>0</v>
       </c>
       <c r="E199" t="s">
-        <v>796</v>
+        <v>826</v>
       </c>
       <c r="F199">
         <v>1</v>
@@ -19171,15 +19177,15 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>797</v>
+        <v>601</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>798</v>
+        <v>602</v>
       </c>
       <c r="B200" t="s">
-        <v>799</v>
+        <v>603</v>
       </c>
       <c r="C200">
         <v>1</v>
@@ -19188,7 +19194,7 @@
         <v>0</v>
       </c>
       <c r="E200" t="s">
-        <v>800</v>
+        <v>827</v>
       </c>
       <c r="F200">
         <v>1</v>
@@ -19197,15 +19203,15 @@
         <v>0</v>
       </c>
       <c r="H200" t="s">
-        <v>801</v>
+        <v>604</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>802</v>
+        <v>605</v>
       </c>
       <c r="B201" t="s">
-        <v>803</v>
+        <v>606</v>
       </c>
       <c r="C201">
         <v>1</v>
@@ -19214,7 +19220,7 @@
         <v>0</v>
       </c>
       <c r="E201" t="s">
-        <v>804</v>
+        <v>828</v>
       </c>
       <c r="F201">
         <v>1</v>
@@ -19223,15 +19229,15 @@
         <v>0</v>
       </c>
       <c r="H201" t="s">
-        <v>805</v>
+        <v>607</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>806</v>
+        <v>608</v>
       </c>
       <c r="B202" t="s">
-        <v>807</v>
+        <v>609</v>
       </c>
       <c r="C202">
         <v>1</v>
@@ -19240,7 +19246,7 @@
         <v>0</v>
       </c>
       <c r="E202" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="F202">
         <v>1</v>
@@ -19249,15 +19255,15 @@
         <v>0</v>
       </c>
       <c r="H202" t="s">
-        <v>809</v>
+        <v>610</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>810</v>
+        <v>611</v>
       </c>
       <c r="B203" t="s">
-        <v>811</v>
+        <v>612</v>
       </c>
       <c r="C203">
         <v>1</v>
@@ -19266,7 +19272,7 @@
         <v>0</v>
       </c>
       <c r="E203" t="s">
-        <v>812</v>
+        <v>830</v>
       </c>
       <c r="F203">
         <v>1</v>
@@ -19275,15 +19281,15 @@
         <v>0</v>
       </c>
       <c r="H203" t="s">
-        <v>813</v>
+        <v>613</v>
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>814</v>
+        <v>614</v>
       </c>
       <c r="B204" t="s">
-        <v>815</v>
+        <v>615</v>
       </c>
       <c r="C204">
         <v>1</v>
@@ -19292,7 +19298,7 @@
         <v>0</v>
       </c>
       <c r="E204" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
       <c r="F204">
         <v>1</v>
@@ -19301,15 +19307,15 @@
         <v>0</v>
       </c>
       <c r="H204" t="s">
-        <v>817</v>
+        <v>616</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>818</v>
+        <v>617</v>
       </c>
       <c r="B205" t="s">
-        <v>819</v>
+        <v>618</v>
       </c>
       <c r="C205">
         <v>1</v>
@@ -19318,7 +19324,7 @@
         <v>0</v>
       </c>
       <c r="E205" t="s">
-        <v>820</v>
+        <v>832</v>
       </c>
       <c r="F205">
         <v>1</v>
@@ -19327,15 +19333,15 @@
         <v>0</v>
       </c>
       <c r="H205" t="s">
-        <v>821</v>
+        <v>619</v>
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>822</v>
+        <v>620</v>
       </c>
       <c r="B206" t="s">
-        <v>823</v>
+        <v>621</v>
       </c>
       <c r="C206">
         <v>1</v>
@@ -19344,7 +19350,7 @@
         <v>0</v>
       </c>
       <c r="E206" t="s">
-        <v>824</v>
+        <v>833</v>
       </c>
       <c r="F206">
         <v>1</v>
@@ -19353,15 +19359,15 @@
         <v>0</v>
       </c>
       <c r="H206" t="s">
-        <v>825</v>
+        <v>622</v>
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>826</v>
+        <v>623</v>
       </c>
       <c r="B207" t="s">
-        <v>827</v>
+        <v>624</v>
       </c>
       <c r="C207">
         <v>1</v>
@@ -19370,7 +19376,7 @@
         <v>0</v>
       </c>
       <c r="E207" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="F207">
         <v>1</v>
@@ -19379,15 +19385,15 @@
         <v>0</v>
       </c>
       <c r="H207" t="s">
-        <v>829</v>
+        <v>625</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>830</v>
+        <v>626</v>
       </c>
       <c r="B208" t="s">
-        <v>831</v>
+        <v>627</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -19396,7 +19402,7 @@
         <v>0</v>
       </c>
       <c r="E208" t="s">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="F208">
         <v>1</v>
@@ -19405,15 +19411,15 @@
         <v>0</v>
       </c>
       <c r="H208" t="s">
-        <v>833</v>
+        <v>628</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>834</v>
+        <v>629</v>
       </c>
       <c r="B209" t="s">
-        <v>835</v>
+        <v>630</v>
       </c>
       <c r="C209">
         <v>1</v>
@@ -19431,10 +19437,11 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>837</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>